--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="フロー " sheetId="4" r:id="rId1"/>
     <sheet name="要求定義" sheetId="1" r:id="rId2"/>
-    <sheet name="画面設計" sheetId="5" r:id="rId3"/>
+    <sheet name="画面設計初稿" sheetId="5" r:id="rId3"/>
     <sheet name="as" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -2749,7 +2749,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>画面設計</a:t>
+            <a:t>画面設計初稿</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3999,10 +3999,10 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4011,8 +4011,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8867775" y="4410075"/>
-          <a:ext cx="1285875" cy="7639050"/>
+          <a:off x="8893175" y="4357158"/>
+          <a:ext cx="1975908" cy="11570759"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4216,8 +4216,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4226,8 +4226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11106150" y="1209675"/>
-          <a:ext cx="4476750" cy="4867275"/>
+          <a:off x="11055350" y="1231900"/>
+          <a:ext cx="4457700" cy="5832475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4770,15 +4770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>24042</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>530680</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4787,8 +4787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11134725" y="6753225"/>
-          <a:ext cx="3257550" cy="2105025"/>
+          <a:off x="10909756" y="7884430"/>
+          <a:ext cx="4588781" cy="6280605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4823,15 +4823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>590099</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>148771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>532740</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4840,8 +4840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11820525" y="6934200"/>
-          <a:ext cx="1409700" cy="409575"/>
+          <a:off x="12156170" y="8462735"/>
+          <a:ext cx="1983713" cy="1013425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4883,15 +4883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>566965</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>87540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>509606</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>39608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4900,8 +4900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11811000" y="7629525"/>
-          <a:ext cx="1409700" cy="409575"/>
+          <a:off x="12133036" y="9816647"/>
+          <a:ext cx="1983713" cy="1013425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4943,15 +4943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>566967</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>509608</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>170235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4960,8 +4960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11791950" y="8315325"/>
-          <a:ext cx="1409700" cy="409575"/>
+          <a:off x="12133038" y="12777560"/>
+          <a:ext cx="1983713" cy="1013425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5002,16 +5002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>674915</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>69397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>579665</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>131990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5020,8 +5020,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11144250" y="9553576"/>
-          <a:ext cx="5391150" cy="2800350"/>
+          <a:off x="10880272" y="15812861"/>
+          <a:ext cx="5347607" cy="2892879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5056,15 +5056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>213633</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>170088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>42183</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5073,8 +5073,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11363325" y="9820274"/>
-          <a:ext cx="4629150" cy="1943101"/>
+          <a:off x="11099347" y="16090445"/>
+          <a:ext cx="4591050" cy="2002972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5109,15 +5109,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>318408</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5126,8 +5126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11468100" y="10058400"/>
-          <a:ext cx="2133600" cy="247650"/>
+          <a:off x="11204122" y="16334014"/>
+          <a:ext cx="2117272" cy="258535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5170,15 +5170,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>376011</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>570593</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>131988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5187,8 +5187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13611224" y="10058400"/>
-          <a:ext cx="885825" cy="238125"/>
+          <a:off x="13302797" y="16334014"/>
+          <a:ext cx="874939" cy="249010"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5239,15 +5239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>268062</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>107495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>344262</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5256,8 +5256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11477625" y="10448925"/>
-          <a:ext cx="2133600" cy="247650"/>
+          <a:off x="11153776" y="16735424"/>
+          <a:ext cx="2117272" cy="258536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5300,15 +5300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>379187</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>107495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>573769</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5317,8 +5317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13611225" y="10448925"/>
-          <a:ext cx="885825" cy="238125"/>
+          <a:off x="13349062" y="16522245"/>
+          <a:ext cx="877207" cy="244476"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5356,15 +5356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>280762</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>356962</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5373,8 +5373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11439525" y="10877550"/>
-          <a:ext cx="2133600" cy="247650"/>
+          <a:off x="11166476" y="17180378"/>
+          <a:ext cx="2117272" cy="253093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5417,15 +5417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>382362</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>529319</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5434,8 +5434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13630275" y="10877550"/>
-          <a:ext cx="838200" cy="238125"/>
+          <a:off x="13309148" y="17180378"/>
+          <a:ext cx="827314" cy="243568"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5486,15 +5486,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>293462</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>69396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>369662</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>151038</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5503,8 +5503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11439525" y="11268075"/>
-          <a:ext cx="2133600" cy="247650"/>
+          <a:off x="11179176" y="17581789"/>
+          <a:ext cx="2117272" cy="258535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5547,15 +5547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>350612</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>497569</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>160563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5564,8 +5564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13630275" y="11287125"/>
-          <a:ext cx="838200" cy="238125"/>
+          <a:off x="13320487" y="17376321"/>
+          <a:ext cx="829582" cy="246742"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5615,16 +5615,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>672194</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>557894</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>151038</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5633,8 +5633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14611350" y="10077450"/>
-          <a:ext cx="571500" cy="238125"/>
+          <a:off x="14279337" y="16353064"/>
+          <a:ext cx="566057" cy="249010"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5680,16 +5680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>668112</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>553812</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5698,8 +5698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14620875" y="10868025"/>
-          <a:ext cx="571500" cy="238125"/>
+          <a:off x="14320612" y="16950871"/>
+          <a:ext cx="568325" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5745,16 +5745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>636362</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>522062</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>141967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5763,8 +5763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14620875" y="11277600"/>
-          <a:ext cx="571500" cy="238125"/>
+          <a:off x="14288862" y="17357725"/>
+          <a:ext cx="568325" cy="246742"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5810,157 +5810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14439900" y="3981450"/>
-          <a:ext cx="4867275" cy="3505201"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14420850" y="7496176"/>
-          <a:ext cx="5191125" cy="228599"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14420850" y="7515225"/>
-          <a:ext cx="5019675" cy="4914900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>26761</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>383268</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>69397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5969,8 +5828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19745325" y="1104900"/>
-          <a:ext cx="4476750" cy="4867275"/>
+          <a:off x="20437475" y="1064079"/>
+          <a:ext cx="4438650" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6004,26 +5863,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>564243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>459468</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20974957" y="1326695"/>
+          <a:ext cx="3297011" cy="1702254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>370567</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20383500" y="1381124"/>
-          <a:ext cx="3324225" cy="1647825"/>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>199118</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22214567" y="1399721"/>
+          <a:ext cx="1876426" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6049,7 +5961,60 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>369659</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>226785</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22141088" y="1819275"/>
+          <a:ext cx="1898197" cy="249011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6058,121 +6023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>64861</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21650325" y="1504950"/>
-          <a:ext cx="1885950" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21631274" y="1895475"/>
-          <a:ext cx="1914525" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>288017</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6181,8 +6040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20526375" y="1504950"/>
-          <a:ext cx="914400" cy="228600"/>
+          <a:off x="21155932" y="1417864"/>
+          <a:ext cx="903514" cy="234043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6227,16 +6086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>74386</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>297542</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6245,8 +6104,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20535900" y="1905000"/>
-          <a:ext cx="914400" cy="228600"/>
+          <a:off x="21165457" y="1828800"/>
+          <a:ext cx="903514" cy="239486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6283,16 +6142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>17236</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112487</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>31296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6301,8 +6160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21469351" y="2724150"/>
-          <a:ext cx="781050" cy="180975"/>
+          <a:off x="21788665" y="2675164"/>
+          <a:ext cx="775608" cy="186418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6343,69 +6202,69 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>385534</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>242660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22229534" y="2174422"/>
+          <a:ext cx="1905001" cy="246742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:colOff>90261</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21631274" y="2266950"/>
-          <a:ext cx="1914525" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>151039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6414,8 +6273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20535900" y="2276475"/>
-          <a:ext cx="914400" cy="228600"/>
+          <a:off x="21251636" y="2183947"/>
+          <a:ext cx="908049" cy="237217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6452,16 +6311,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>483961</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>360136</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6470,8 +6329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20354925" y="3171824"/>
-          <a:ext cx="3305175" cy="2657475"/>
+          <a:off x="20894675" y="3139167"/>
+          <a:ext cx="3277961" cy="2739118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6512,16 +6371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>372836</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6530,8 +6389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19735800" y="6438900"/>
-          <a:ext cx="4476750" cy="4867275"/>
+          <a:off x="20427043" y="6732815"/>
+          <a:ext cx="4438650" cy="5025118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6565,16 +6424,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>649061</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>121104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6583,8 +6442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20373975" y="6715124"/>
-          <a:ext cx="3324225" cy="1647825"/>
+          <a:off x="21059775" y="7019925"/>
+          <a:ext cx="3297011" cy="1692728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6618,122 +6477,122 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>263980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>153761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22206858" y="7162800"/>
+          <a:ext cx="1869622" cy="243568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>389162</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>246288</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22160591" y="7550604"/>
+          <a:ext cx="1898197" cy="243568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>106136</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>334735</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21640800" y="6838950"/>
-          <a:ext cx="1885950" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21621749" y="7229475"/>
-          <a:ext cx="1914525" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6742,8 +6601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20516850" y="6838950"/>
-          <a:ext cx="914400" cy="228600"/>
+          <a:off x="21197207" y="7149193"/>
+          <a:ext cx="908957" cy="234043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6788,16 +6647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>344260</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6806,8 +6665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20526375" y="7239000"/>
-          <a:ext cx="914400" cy="228600"/>
+          <a:off x="21206732" y="7560129"/>
+          <a:ext cx="908957" cy="234043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6844,16 +6703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>329293</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>424544</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6862,8 +6721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21507451" y="8058150"/>
-          <a:ext cx="781050" cy="180975"/>
+          <a:off x="22100722" y="8406493"/>
+          <a:ext cx="775608" cy="186418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6904,69 +6763,69 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>402767</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>259893</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22174196" y="7932965"/>
+          <a:ext cx="1898197" cy="243568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>121102</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="正方形/長方形 113"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21621749" y="7600950"/>
-          <a:ext cx="1914525" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>159204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>344258</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6975,8 +6834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20526375" y="7610475"/>
-          <a:ext cx="914400" cy="228600"/>
+          <a:off x="21212173" y="7942490"/>
+          <a:ext cx="903514" cy="234043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7013,16 +6872,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>627743</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>503918</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>102053</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7031,8 +6890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20393025" y="8505824"/>
-          <a:ext cx="3305175" cy="2657475"/>
+          <a:off x="21106493" y="8747578"/>
+          <a:ext cx="3289300" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7073,16 +6932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>677636</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>155123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>292554</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7091,8 +6950,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19602450" y="12211051"/>
-          <a:ext cx="5095875" cy="2733674"/>
+          <a:off x="20407993" y="16429266"/>
+          <a:ext cx="5057775" cy="2820760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7126,16 +6985,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>121103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>73479</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7144,8 +7003,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19850100" y="12372974"/>
-          <a:ext cx="4629150" cy="1943101"/>
+          <a:off x="20655643" y="16749032"/>
+          <a:ext cx="4591050" cy="2008415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7179,16 +7038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>197302</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>145598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>263978</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>44904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7197,8 +7056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21174074" y="12601575"/>
-          <a:ext cx="752475" cy="247650"/>
+          <a:off x="21968731" y="16950419"/>
+          <a:ext cx="747033" cy="253092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7240,16 +7099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>406853</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>601435</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7258,8 +7117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22126574" y="12611100"/>
-          <a:ext cx="885825" cy="238125"/>
+          <a:off x="22858639" y="16897351"/>
+          <a:ext cx="874939" cy="249010"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7296,16 +7155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>668111</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>553811</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7314,8 +7173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23098125" y="12630150"/>
-          <a:ext cx="571500" cy="238125"/>
+          <a:off x="23800254" y="16940894"/>
+          <a:ext cx="566057" cy="243567"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7361,16 +7220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>408367</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>425903</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>155123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>5594</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7379,8 +7238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20031075" y="12611100"/>
-          <a:ext cx="951292" cy="247650"/>
+          <a:off x="20836617" y="16959944"/>
+          <a:ext cx="940406" cy="253092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7421,16 +7280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>99330</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>166006</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7439,8 +7298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21174074" y="13049250"/>
-          <a:ext cx="752475" cy="247650"/>
+          <a:off x="21870759" y="17408979"/>
+          <a:ext cx="747033" cy="258536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7482,16 +7341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>406853</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>601435</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7500,8 +7359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22126574" y="13058775"/>
-          <a:ext cx="885825" cy="238125"/>
+          <a:off x="22858639" y="17361354"/>
+          <a:ext cx="874939" cy="243568"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7538,16 +7397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28878</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>44904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>607937</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7556,8 +7415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23098125" y="13077825"/>
-          <a:ext cx="571500" cy="238125"/>
+          <a:off x="24105961" y="16639571"/>
+          <a:ext cx="579059" cy="236008"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7603,16 +7462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>408367</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>425903</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>83004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>5594</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7621,8 +7480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20031075" y="13058775"/>
-          <a:ext cx="951292" cy="247650"/>
+          <a:off x="20836617" y="17418504"/>
+          <a:ext cx="940406" cy="258536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7663,16 +7522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>99330</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>166006</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7681,8 +7540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21174074" y="13525500"/>
-          <a:ext cx="752475" cy="247650"/>
+          <a:off x="21870759" y="17844408"/>
+          <a:ext cx="747033" cy="253093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7724,16 +7583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>406853</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>601435</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7742,8 +7601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22126574" y="13535025"/>
-          <a:ext cx="885825" cy="238125"/>
+          <a:off x="22858639" y="17853933"/>
+          <a:ext cx="874939" cy="243568"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7780,16 +7639,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28878</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>144387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>607937</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7798,8 +7657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23098125" y="13554075"/>
-          <a:ext cx="571500" cy="238125"/>
+          <a:off x="24105961" y="17077720"/>
+          <a:ext cx="579059" cy="241452"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7845,16 +7704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>408367</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>425903</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>5594</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>63955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7863,8 +7722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20031075" y="13535025"/>
-          <a:ext cx="951292" cy="247650"/>
+          <a:off x="20836617" y="17853933"/>
+          <a:ext cx="940406" cy="253093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7905,16 +7764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>85120</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>124430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>489253</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>153004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7923,8 +7782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23040975" y="11401425"/>
-          <a:ext cx="1781175" cy="1228725"/>
+          <a:off x="24850120" y="16549763"/>
+          <a:ext cx="1779966" cy="1213908"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst/>
@@ -7963,15 +7822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>173717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>271236</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>8618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7980,8 +7839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15182849" y="10363200"/>
-          <a:ext cx="1781175" cy="1038225"/>
+          <a:off x="15562036" y="16413842"/>
+          <a:ext cx="1774825" cy="1057276"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst/>
@@ -8019,16 +7878,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>283482</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>544739</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8037,8 +7896,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16659225" y="4991100"/>
-          <a:ext cx="1638300" cy="895350"/>
+          <a:off x="18031732" y="3653064"/>
+          <a:ext cx="1626507" cy="908957"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8076,16 +7935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:rowOff>127908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>243568</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>166008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8094,8 +7953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16773525" y="7239000"/>
-          <a:ext cx="1638300" cy="895350"/>
+          <a:off x="18346510" y="7557408"/>
+          <a:ext cx="1627415" cy="922564"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8133,16 +7992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>273395</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>540096</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>72407</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8151,8 +8010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17240250" y="10477500"/>
-          <a:ext cx="1638300" cy="895350"/>
+          <a:off x="18766878" y="16125045"/>
+          <a:ext cx="1636589" cy="899722"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8182,6 +8041,3471 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>返却</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>519213</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>41891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>422893</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12085284" y="18261855"/>
+          <a:ext cx="1264395" cy="321679"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>貸出履歴一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>574220</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>127909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13484679" y="18560143"/>
+          <a:ext cx="6819898" cy="5094516"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>175079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>89807</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>137885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20424321" y="21932900"/>
+          <a:ext cx="3477986" cy="3323771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>451757</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21542828" y="22059900"/>
+          <a:ext cx="1507672" cy="328385"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>貸出履歴一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>55335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>172357</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20633871" y="22697621"/>
+          <a:ext cx="629557" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>本名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>254907</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>55335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>280306</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21345978" y="22697621"/>
+          <a:ext cx="705757" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>借りる時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>426356</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>55335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>280307</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22197785" y="22697621"/>
+          <a:ext cx="534308" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>状況</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257628</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>93436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20668342" y="23089507"/>
+          <a:ext cx="629557" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>aaaaa</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>289378</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>93436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>314777</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21380449" y="23089507"/>
+          <a:ext cx="705757" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>420006</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>93436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>369207</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22191435" y="23089507"/>
+          <a:ext cx="629558" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>借りる中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>270328</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>219528</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20681042" y="23462343"/>
+          <a:ext cx="629557" cy="189592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>bbbbb</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>302078</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>327477</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21393149" y="23462343"/>
+          <a:ext cx="705757" cy="189592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>473527</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>327478</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22244956" y="23462343"/>
+          <a:ext cx="534308" cy="189592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>返却</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>427264</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>376464</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>4535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20837978" y="23872371"/>
+          <a:ext cx="629557" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>ccccc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>350157</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>375556</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>4535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="正方形/長方形 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21441228" y="23872371"/>
+          <a:ext cx="705757" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160512</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>521606</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>375557</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>4535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="正方形/長方形 168"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22293035" y="23872371"/>
+          <a:ext cx="534308" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>返却</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>516164</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>541564</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>61685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="正方形/長方形 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22967950" y="22691271"/>
+          <a:ext cx="705757" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>返却時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>509814</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>535214</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="正方形/長方形 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22961600" y="23083157"/>
+          <a:ext cx="705757" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>563335</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>588735</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>118835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="正方形/長方形 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23015121" y="23455993"/>
+          <a:ext cx="705757" cy="189592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>556985</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>162378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>582385</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>175078</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="正方形/長方形 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23008771" y="23866021"/>
+          <a:ext cx="705757" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160512</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>213504</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>163450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>401865</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>125187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="角丸四角形 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21984933" y="24397771"/>
+          <a:ext cx="868718" cy="315523"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>512539</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>27668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>455180</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>156629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="角丸四角形 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12078610" y="11348811"/>
+          <a:ext cx="1983713" cy="1013425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>貸出履歴一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15772</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>108701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>382484</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20426486" y="13021880"/>
+          <a:ext cx="4448855" cy="2967750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>23997</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>176399</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="角丸四角形 181"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21795426" y="13116048"/>
+          <a:ext cx="1513116" cy="328386"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>貸出履歴一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>439056</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="正方形/長方形 182"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21580928" y="13727793"/>
+          <a:ext cx="629557" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>本名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>352877</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>378278</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="正方形/長方形 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22124306" y="13727793"/>
+          <a:ext cx="705758" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>借りる時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>401863</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>255813</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22853649" y="13727793"/>
+          <a:ext cx="534307" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>状況</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>492585</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>102809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>441786</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>115509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="正方形/長方形 185"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21818002" y="13480142"/>
+          <a:ext cx="637117" cy="182034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>aaaaa</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>432708</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>102809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>458107</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>115509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="正方形/長方形 186"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22446041" y="13480142"/>
+          <a:ext cx="713316" cy="182034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>477161</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>102809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>426361</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>115509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="正方形/長方形 187"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23178411" y="13480142"/>
+          <a:ext cx="637117" cy="182034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>借りる中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>484116</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>68943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>433317</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="正方形/長方形 188"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21809533" y="13784943"/>
+          <a:ext cx="637117" cy="174474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>bbbbb</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>446923</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>68943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>472322</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="正方形/長方形 189"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22460256" y="13784943"/>
+          <a:ext cx="713316" cy="174474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>500446</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>58360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>354396</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23201696" y="13774360"/>
+          <a:ext cx="541867" cy="174474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>返却</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>480789</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>429990</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="正方形/長方形 191"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21806206" y="14156267"/>
+          <a:ext cx="637117" cy="182033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>ccccc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>464765</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>490164</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22478098" y="14156267"/>
+          <a:ext cx="713316" cy="182033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160512</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>497118</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>351068</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23198368" y="14156267"/>
+          <a:ext cx="541867" cy="182033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>返却</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>279399</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>100693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23411542" y="13721443"/>
+          <a:ext cx="705757" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>返却時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>445411</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>96459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>478371</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>109159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23834578" y="13473792"/>
+          <a:ext cx="720876" cy="182034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>423337</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>448737</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>75293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23812504" y="13778593"/>
+          <a:ext cx="713316" cy="182033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160302</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>370123</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>395524</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23759290" y="14149917"/>
+          <a:ext cx="713317" cy="182033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>20160512</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>426190</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>24160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>610838</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>168234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="角丸四角形 198"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22439523" y="14586827"/>
+          <a:ext cx="872565" cy="313407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>131989</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>398689</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="円/楕円 199"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18501632" y="13057414"/>
+          <a:ext cx="1627414" cy="922564"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>貸出履歴一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>554491</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>503690</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20965205" y="13727793"/>
+          <a:ext cx="629556" cy="189593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>537558</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>102809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>486757</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>115509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21175058" y="13480142"/>
+          <a:ext cx="637116" cy="182034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>aa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>518508</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>68943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>467707</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="正方形/長方形 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21156008" y="13784943"/>
+          <a:ext cx="637116" cy="174474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>bb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>533324</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>482523</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="正方形/長方形 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21170824" y="14156267"/>
+          <a:ext cx="637116" cy="182033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>cc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>359834</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14118167" y="2899833"/>
+          <a:ext cx="6424083" cy="5778501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>391584</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14149917" y="7672917"/>
+          <a:ext cx="6529916" cy="2338916"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>497417</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14255750" y="11546417"/>
+          <a:ext cx="6244167" cy="2169583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14033500" y="13049250"/>
+          <a:ext cx="6572250" cy="3693583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12541251" y="4032251"/>
+          <a:ext cx="1730374" cy="365124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>一般管理者一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="正方形/長方形 204"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12525376" y="5429251"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>650876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="正方形/長方形 205"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907501" y="4079876"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>650876</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907501" y="4667251"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22018626" y="9906001"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="正方形/長方形 208"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22018626" y="10588626"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12541251" y="4683126"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907501" y="3587751"/>
+          <a:ext cx="1730374" cy="365124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ユーザー一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="正方形/長方形 211"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22034501" y="9350376"/>
+          <a:ext cx="1730374" cy="365124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>本の一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460196</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>524410</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5254803" y="6678202"/>
+          <a:ext cx="2119045" cy="288961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32107</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>663539</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="角丸四角形 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7566489" y="6678202"/>
+          <a:ext cx="631432" cy="321068"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8514,8 +11838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -4,21 +4,525 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="231" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="593" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="フロー " sheetId="4" r:id="rId1"/>
     <sheet name="要求定義" sheetId="1" r:id="rId2"/>
-    <sheet name="画面設計初稿" sheetId="5" r:id="rId3"/>
-    <sheet name="as" sheetId="3" r:id="rId4"/>
+    <sheet name="画面フロー設計" sheetId="5" r:id="rId3"/>
+    <sheet name="画面設計(1)" sheetId="3" r:id="rId4"/>
+    <sheet name="画面設計(2)" sheetId="7" r:id="rId5"/>
+    <sheet name="画面設計(3)" sheetId="8" r:id="rId6"/>
+    <sheet name="画面設計(4)" sheetId="9" r:id="rId7"/>
+    <sheet name="画面設計(5)" sheetId="10" r:id="rId8"/>
+    <sheet name="画面設計(6)" sheetId="11" r:id="rId9"/>
+    <sheet name="画面設計(7)" sheetId="12" r:id="rId10"/>
+    <sheet name="画面設計(8)" sheetId="13" r:id="rId11"/>
+    <sheet name="画面設計(9)" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>トップ画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本の名前</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書名</t>
+    <rPh sb="0" eb="2">
+      <t>ショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著者名</t>
+    <rPh sb="0" eb="3">
+      <t>チョシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り数</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ管理者画面</t>
+    <rPh sb="3" eb="6">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ID</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再入力</t>
+    <rPh sb="5" eb="8">
+      <t>サイニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ID</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時間</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者一覧</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者削除</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者編集</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいID</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいパスワード</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者登録</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者画面</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本管理</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出履歴一覧</t>
+    <rPh sb="0" eb="2">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>借りる</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴一覧</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理画面</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著者名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <rPh sb="0" eb="3">
+      <t>シュッパンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍削除</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍編集</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書名</t>
+    <rPh sb="0" eb="2">
+      <t>ショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出履歴画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>借りる時間</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出中書籍一覧</t>
+    <rPh sb="0" eb="2">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出履歴画面(ユーザー)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>借りる中</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +537,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -50,12 +581,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -75,15 +900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>421142</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>573542</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -92,8 +917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="400050"/>
-          <a:ext cx="7696200" cy="647700"/>
+          <a:off x="5243173" y="201726"/>
+          <a:ext cx="7729878" cy="642257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -141,13 +966,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>43114</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662740</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -200,13 +1025,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>290764</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>157414</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -262,13 +1087,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>319840</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>491290</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -316,13 +1141,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>462715</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -375,13 +1200,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>462715</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>653215</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -452,13 +1277,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>90739</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>300289</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -514,13 +1339,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>548440</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>491290</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -573,13 +1398,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>119314</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>662740</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -635,13 +1460,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>157414</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>319840</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -689,13 +1514,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>71689</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33589</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -748,13 +1573,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>224089</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>405565</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -825,13 +1650,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>424615</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>128838</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -887,13 +1712,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33589</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>310315</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -950,13 +1775,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>519865</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14539</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1001,7 +1826,7 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>B:</a:t>
+            <a:t>C:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
@@ -1020,13 +1845,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>405565</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>577015</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1071,7 +1896,7 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>C:</a:t>
+            <a:t>:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
@@ -1090,13 +1915,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>634165</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>538915</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1137,13 +1962,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>672265</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>481765</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1184,13 +2009,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33589</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>348415</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1231,13 +2056,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>386515</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>443665</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1278,13 +2103,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>396040</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>271713</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1322,13 +2147,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>357940</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>233613</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1366,13 +2191,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1410,13 +2235,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>24064</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>643690</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1469,13 +2294,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>271714</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>138364</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1531,13 +2356,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>300790</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>472240</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1585,13 +2410,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>588739</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>8059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1644,13 +2469,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>310315</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>500815</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1753,13 +2578,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>586039</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1815,13 +2640,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1866,7 +2691,7 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>A:</a:t>
+            <a:t>B:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
@@ -1885,13 +2710,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1931,15 +2756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>443665</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157761</xdr:rowOff>
+      <xdr:colOff>418151</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>319338</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>5849</xdr:rowOff>
+      <xdr:colOff>293824</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14354</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1948,8 +2773,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="443665" y="1354492"/>
-          <a:ext cx="23126442" cy="19049"/>
+          <a:off x="418151" y="4078320"/>
+          <a:ext cx="23296968" cy="18177"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1976,13 +2801,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2021,13 +2846,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2066,13 +2891,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2113,13 +2938,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2158,13 +2983,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2203,13 +3028,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2248,16 +3073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80623</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585447</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2266,8 +3091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="371475"/>
-          <a:ext cx="3248025" cy="695325"/>
+          <a:off x="4902654" y="1567884"/>
+          <a:ext cx="3260271" cy="689882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,6 +3169,482 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>452158</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>327831</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150426</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="452158" y="982695"/>
+          <a:ext cx="23296968" cy="18177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275278</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446728</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="スマイル 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3030724" y="1681502"/>
+          <a:ext cx="1549174" cy="1587953"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>425223</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>620826</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8691562" y="1139600"/>
+          <a:ext cx="2262188" cy="2848994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>東京デザインテクノロジ専門学校</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>図書室管理システムページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>442232</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306161</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="雲形吹き出し 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="442232" y="1156607"/>
+          <a:ext cx="1930514" cy="1139598"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58699"/>
+            <a:gd name="adj2" fmla="val 33396"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本を検索する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246630</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>93549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9031741" y="1734912"/>
+          <a:ext cx="1547813" cy="1080066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>すべての本の一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>153080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>51027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9108281" y="3240201"/>
+          <a:ext cx="952500" cy="212612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本の名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>569798</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>433728</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10213861" y="3197679"/>
+          <a:ext cx="552791" cy="289151"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4788013" y="2568348"/>
+          <a:ext cx="3648416" cy="25514"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2419,13 +3720,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -2436,7 +3737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="1247775"/>
+          <a:off x="5676900" y="1247775"/>
           <a:ext cx="7077075" cy="4991100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2693,16 +3994,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181297</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333697</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2711,8 +4012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="400050"/>
-          <a:ext cx="7696200" cy="647700"/>
+          <a:off x="6345791" y="314004"/>
+          <a:ext cx="7686782" cy="646844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,7 +4050,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>画面設計初稿</a:t>
+            <a:t>画面フロー設計</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11804,8 +13105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11817,12 +13118,1317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="J9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="J12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="J9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="J12" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6:R39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="J9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="J12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:T36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="K8" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="Q9" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="Q10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="36"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="H11" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="Q11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="34"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="Q12" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="34"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="Q13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="Q15" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="H16" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="Q16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="H21" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="K23" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="Q26" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="45"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="Q27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="21"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B28" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="G28" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="Q28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="Q30" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="42"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="Q31" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R31" s="22"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="Q32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="21"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="15"/>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="Q33" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="Q34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11838,8 +14444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="P103" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="Z162" sqref="Z162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11853,15 +14459,1886 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="J9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="J10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="J12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="J16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="J14:K14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="M9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="J12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="J28" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="J29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="J30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="J32" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="J33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="J34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="J35" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="J36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="M9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="F10" s="52"/>
+      <c r="I10" s="4"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="K11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E16" s="51"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="K21" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="48"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="K26" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="48"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="K11:L12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="5:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="5:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="J10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="53"/>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="53"/>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="53"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="53"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="E16" s="51"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>2</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="53"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12">
+        <v>5</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="53"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="53"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="53"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="53"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="53"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="53"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="53"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="53"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="53"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="53"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="53"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="53"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="53"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="53"/>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I6:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="J9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="J12" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="J28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="J29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="J30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="J32" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="J33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="J34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="J35" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="J36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+      <c r="J9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I10" s="4"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+      <c r="J12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+      <c r="J14" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+      <c r="J18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+      <c r="J28" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+      <c r="J29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+      <c r="J30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+      <c r="J32" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+      <c r="J33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+      <c r="J34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+      <c r="J35" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+      <c r="J36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="593" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="593" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="フロー " sheetId="4" r:id="rId1"/>
@@ -13,20 +13,21 @@
     <sheet name="画面設計(1)" sheetId="3" r:id="rId4"/>
     <sheet name="画面設計(2)" sheetId="7" r:id="rId5"/>
     <sheet name="画面設計(3)" sheetId="8" r:id="rId6"/>
-    <sheet name="画面設計(4)" sheetId="9" r:id="rId7"/>
-    <sheet name="画面設計(5)" sheetId="10" r:id="rId8"/>
-    <sheet name="画面設計(6)" sheetId="11" r:id="rId9"/>
-    <sheet name="画面設計(7)" sheetId="12" r:id="rId10"/>
-    <sheet name="画面設計(8)" sheetId="13" r:id="rId11"/>
+    <sheet name="画面設計(5)" sheetId="10" r:id="rId7"/>
+    <sheet name="画面設計(6)" sheetId="11" r:id="rId8"/>
+    <sheet name="画面設計(7)" sheetId="12" r:id="rId9"/>
+    <sheet name="画面設計(8)" sheetId="13" r:id="rId10"/>
+    <sheet name="画面設計(4)" sheetId="9" r:id="rId11"/>
     <sheet name="画面設計(9)" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId13"/>
+    <sheet name="テーブル" sheetId="15" r:id="rId13"/>
+    <sheet name="ゴミ箱" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="108">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -48,16 +49,6 @@
     <t>検索</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本の名前</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,13 +317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー編集</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -517,12 +501,294 @@
     <t>ログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>冊数</t>
+    <rPh sb="0" eb="2">
+      <t>サッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍ISBN</t>
+  </si>
+  <si>
+    <t>書籍ISBN</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍ISBN</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍情報変更</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者情報変更</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版年</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書架</t>
+    <rPh sb="0" eb="2">
+      <t>ショカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書名</t>
+    <rPh sb="0" eb="2">
+      <t>ショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著者名</t>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>借りる時間</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出履歴画面</t>
+    <rPh sb="0" eb="2">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>借りる時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出履歴画面(ユーザー)</t>
+    <rPh sb="0" eb="2">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書架</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag_manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOTNULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名（英文）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email_student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_register_student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_register_manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,8 +812,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -758,31 +1038,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,29 +1091,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,6 +1107,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,8 +1124,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,17 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,8 +1157,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3274,11 +3593,11 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>425223</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>620826</xdr:colOff>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8504</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76540</xdr:rowOff>
     </xdr:to>
@@ -3289,13 +3608,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8691562" y="1139600"/>
-          <a:ext cx="2262188" cy="2848994"/>
+          <a:off x="8691562" y="1054554"/>
+          <a:ext cx="2338728" cy="2934040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="3175"/>
+        <a:effectLst>
+          <a:innerShdw blurRad="114300">
+            <a:prstClr val="black"/>
+          </a:innerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3813,7 +4137,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>登録、編集、削除</a:t>
+            <a:t>登録、変更、削除</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
@@ -3852,7 +4176,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>本を管理（登録、編集、削除）</a:t>
+            <a:t>本を管理（登録、変更、削除）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -3872,7 +4196,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>登録、編集、削除</a:t>
+            <a:t>登録、変更、削除</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
@@ -12470,7 +12794,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>編集</a:t>
+            <a:t>変更</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12582,7 +12906,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>編集</a:t>
+            <a:t>変更</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13105,8 +13429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView topLeftCell="A34" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13120,234 +13444,516 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I6:R39"/>
+  <dimension ref="D6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I8" s="1"/>
+    <row r="6" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I9" s="4"/>
-      <c r="J9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I10" s="4"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I11" s="4"/>
-      <c r="J11" s="40" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="Q9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+      <c r="I12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+      <c r="I13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+      <c r="I14" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H17" s="4"/>
+      <c r="I17" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H18" s="4"/>
+      <c r="I18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I12" s="4"/>
-      <c r="J12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I13" s="4"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I16" s="4"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I19" s="4"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I20" s="4"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H20" s="4"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I21" s="4"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I22" s="4"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I23" s="4"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I24" s="4"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I25" s="4"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I26" s="4"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I27" s="4"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I28" s="4"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I29" s="4"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I30" s="4"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I31" s="4"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I32" s="4"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I33" s="4"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I34" s="4"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I35" s="4"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I36" s="4"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I37" s="4"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I38" s="4"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H21" s="4"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H22" s="4"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H24" s="4"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H25" s="4"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H26" s="4"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H27" s="4"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H28" s="4"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H29" s="4"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I39" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="H6:R7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13357,262 +13963,463 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I6:R39"/>
+  <dimension ref="E6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I8" s="1"/>
+    <row r="6" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I9" s="4"/>
-      <c r="J9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I10" s="4"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I11" s="4"/>
-      <c r="J11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I12" s="4"/>
-      <c r="J12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I13" s="4"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H10" s="4"/>
+      <c r="I10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+      <c r="I13" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="L13" s="12"/>
-      <c r="M13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="M13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+      <c r="I14" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="L14" s="12"/>
-      <c r="M14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I16" s="4"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I19" s="4"/>
+      <c r="M14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+      <c r="I15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E16" s="24"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H18" s="4"/>
+      <c r="I18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H19" s="4"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I20" s="4"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H20" s="4"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I21" s="4"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H21" s="4"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I22" s="4"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H22" s="4"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I23" s="4"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I24" s="4"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I25" s="4"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I26" s="4"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I27" s="4"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I28" s="4"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I29" s="4"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I30" s="4"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I31" s="4"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I32" s="4"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I33" s="4"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I34" s="4"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I35" s="4"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I36" s="4"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I37" s="4"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I38" s="4"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H24" s="4"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H25" s="4"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H26" s="4"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H27" s="4"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H28" s="4"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H29" s="4"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H30" s="4"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H31" s="4"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H32" s="4"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="8:17" x14ac:dyDescent="0.15">
+      <c r="H33" s="4"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="8:17" x14ac:dyDescent="0.15">
+      <c r="H34" s="4"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="8:17" x14ac:dyDescent="0.15">
+      <c r="H35" s="4"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="8:17" x14ac:dyDescent="0.15">
+      <c r="H36" s="4"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="8:17" x14ac:dyDescent="0.15">
+      <c r="H37" s="4"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="8:17" x14ac:dyDescent="0.15">
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I39" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="8:17" x14ac:dyDescent="0.15">
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
+  <mergeCells count="1">
+    <mergeCell ref="H6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13622,242 +14429,498 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I6:R39"/>
+  <dimension ref="G6:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I8" s="1"/>
+    <row r="6" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I9" s="4"/>
-      <c r="J9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I10" s="4"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I11" s="4"/>
-      <c r="J11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I12" s="4"/>
-      <c r="J12" s="31" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G9" s="4"/>
+      <c r="H9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G12" s="4"/>
+      <c r="H12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G14" s="4"/>
+      <c r="H14" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G17" s="4"/>
+      <c r="H17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G18" s="4"/>
+      <c r="H18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I13" s="4"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I16" s="4"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I19" s="4"/>
+      <c r="I18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G19" s="4"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I20" s="4"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G20" s="4"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I21" s="4"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G21" s="4"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I22" s="4"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I23" s="4"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I24" s="4"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I25" s="4"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I26" s="4"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I27" s="4"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I28" s="4"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I29" s="4"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I30" s="4"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I31" s="4"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I32" s="4"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I33" s="4"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I34" s="4"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I35" s="4"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I36" s="4"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I37" s="4"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I38" s="4"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G22" s="4"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G23" s="4"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G24" s="4"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G25" s="4"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G26" s="4"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G27" s="4"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G28" s="4"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G29" s="4"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I39" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="G6:Q7"/>
+    <mergeCell ref="H17:P17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13867,295 +14930,627 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:T36"/>
+  <dimension ref="G13:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:J36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H6" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="48"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B8" s="35" t="s">
+    <row r="13" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G13" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="69"/>
+      <c r="I13" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G14" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="69"/>
+      <c r="I14" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G15" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="69"/>
+      <c r="I15" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G17" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G18" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G19" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G20" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="57"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G21" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G22" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G27" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="69"/>
+      <c r="I27" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G28" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="69"/>
+      <c r="I28" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="57"/>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G29" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G31" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G32" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="71"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G33" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="57"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G34" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="57"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G35" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="57"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G36" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="57"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:Y85"/>
+  <sheetViews>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="H6" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B8" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="37"/>
+      <c r="K8" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="37"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="Q9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40"/>
+      <c r="V9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="K8" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B9" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="Q9" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="Q10" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B11" s="19" t="s">
-        <v>13</v>
+      <c r="Q10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="47"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="37"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="H11" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
+      <c r="H11" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="Q11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
+      <c r="Q11" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="37"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="Q12" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="34"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="Q12" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="37"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="Q13" s="19" t="s">
-        <v>13</v>
+      <c r="Q13" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B14" s="37" t="s">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="Q15" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="Q15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="H16" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="48"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
+      <c r="H16" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="51"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="Q16" s="31" t="s">
+      <c r="Q16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="31" t="s">
+      <c r="S16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="31" t="s">
+      <c r="T16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="H21" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="48"/>
+      <c r="H21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="51"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="K23" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="31" t="s">
+      <c r="K23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>54</v>
+      <c r="N23" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -14168,14 +15563,18 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -14184,10 +15583,14 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
-        <v>18</v>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B26" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -14197,13 +15600,17 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="Q26" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="45"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -14212,50 +15619,58 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="Q27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="21"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B28" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="G28" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="31" t="s">
+      <c r="Q27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="37"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="37"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B28" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="G28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>54</v>
+      <c r="J28" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="Q28" s="19" t="s">
-        <v>18</v>
+      <c r="Q28" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B29" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B29" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="37"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -14269,13 +15684,13 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -14284,20 +15699,20 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="Q30" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="42"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="Q30" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="40"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B31" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="37"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -14306,16 +15721,16 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="Q31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="R31" s="22"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="21"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="19" t="s">
-        <v>20</v>
+      <c r="Q31" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" s="36"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="37"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B32" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -14324,51 +15739,589 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="Q32" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="21"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="15"/>
-    </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="Q32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="37"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="Q33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R33" s="22"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="21"/>
-    </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="Q33" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="36"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="37"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-      <c r="Q34" s="19" t="s">
-        <v>20</v>
+      <c r="Q34" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U38" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U39" s="12"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U40" s="12"/>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U41" s="12"/>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U42" s="12"/>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U43" s="12"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U44" s="12"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="3:21" ht="24" x14ac:dyDescent="0.15">
+      <c r="C47" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="42"/>
+      <c r="H47" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="31"/>
+      <c r="U47" s="12"/>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C48" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="34"/>
+      <c r="U48" s="12"/>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C49" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="58"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="3"/>
+      <c r="U49" s="12"/>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C50" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="23"/>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C51" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="H51" s="4"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C52" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="6"/>
+      <c r="R52" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="31"/>
+    </row>
+    <row r="53" spans="3:23" ht="24" x14ac:dyDescent="0.15">
+      <c r="H53" s="4"/>
+      <c r="I53" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="6"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="34"/>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H54" s="4"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="6"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H55" s="4"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="6"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W55" s="23"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H56" s="4"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="6"/>
+      <c r="R56" s="4"/>
+      <c r="W56" s="6"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H57" s="4"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="6"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="6"/>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H58" s="4"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="6"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T58" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U58" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="V58" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="W58" s="6"/>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H59" s="4"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="6"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" s="12"/>
+      <c r="W59" s="6"/>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H60" s="4"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="6"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V60" s="12"/>
+      <c r="W60" s="6"/>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H61" s="4"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="6"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="6"/>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H62" s="4"/>
+      <c r="M62" s="6"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="6"/>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H63" s="4"/>
+      <c r="M63" s="6"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="6"/>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="H64" s="4"/>
+      <c r="M64" s="6"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="6"/>
+    </row>
+    <row r="65" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H65" s="4"/>
+      <c r="M65" s="6"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="6"/>
+    </row>
+    <row r="66" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H66" s="4"/>
+      <c r="M66" s="6"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="6"/>
+    </row>
+    <row r="67" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H67" s="4"/>
+      <c r="M67" s="6"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="6"/>
+    </row>
+    <row r="68" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H68" s="4"/>
+      <c r="M68" s="6"/>
+      <c r="R68" s="4"/>
+      <c r="W68" s="6"/>
+    </row>
+    <row r="69" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H69" s="4"/>
+      <c r="M69" s="6"/>
+      <c r="R69" s="4"/>
+      <c r="W69" s="6"/>
+    </row>
+    <row r="70" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H70" s="4"/>
+      <c r="M70" s="6"/>
+      <c r="R70" s="4"/>
+      <c r="W70" s="6"/>
+    </row>
+    <row r="71" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H71" s="4"/>
+      <c r="M71" s="6"/>
+      <c r="R71" s="4"/>
+      <c r="W71" s="6"/>
+    </row>
+    <row r="72" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H72" s="4"/>
+      <c r="M72" s="6"/>
+      <c r="R72" s="4"/>
+      <c r="W72" s="6"/>
+    </row>
+    <row r="73" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H73" s="4"/>
+      <c r="M73" s="6"/>
+      <c r="R73" s="4"/>
+      <c r="W73" s="6"/>
+    </row>
+    <row r="74" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H74" s="4"/>
+      <c r="M74" s="6"/>
+      <c r="R74" s="4"/>
+      <c r="W74" s="6"/>
+    </row>
+    <row r="75" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="H75" s="4"/>
+      <c r="M75" s="6"/>
+      <c r="R75" s="4"/>
+      <c r="W75" s="6"/>
+    </row>
+    <row r="76" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D76" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="M76" s="6"/>
+      <c r="R76" s="4"/>
+      <c r="W76" s="6"/>
+    </row>
+    <row r="77" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="4"/>
+      <c r="M77" s="6"/>
+      <c r="R77" s="4"/>
+      <c r="W77" s="6"/>
+    </row>
+    <row r="78" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="4"/>
+      <c r="M78" s="6"/>
+      <c r="R78" s="4"/>
+      <c r="W78" s="6"/>
+    </row>
+    <row r="79" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="6"/>
+      <c r="R79" s="4"/>
+      <c r="W79" s="6"/>
+    </row>
+    <row r="80" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="9"/>
+      <c r="R80" s="4"/>
+      <c r="W80" s="6"/>
+    </row>
+    <row r="81" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="R81" s="4"/>
+      <c r="W81" s="6"/>
+    </row>
+    <row r="82" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="R82" s="4"/>
+      <c r="W82" s="6"/>
+    </row>
+    <row r="83" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="R83" s="4"/>
+      <c r="W83" s="6"/>
+    </row>
+    <row r="84" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="6"/>
+    </row>
+    <row r="85" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="R85" s="7"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="62">
+    <mergeCell ref="H47:M48"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="R52:W53"/>
+    <mergeCell ref="S57:V57"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="S32:T32"/>
@@ -14380,43 +16333,6 @@
     <mergeCell ref="Q26:T26"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14427,8 +16343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14444,8 +16360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="P103" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="Z162" sqref="Z162"/>
+    <sheetView topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AN60" sqref="AN60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14459,314 +16375,388 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I6:R39"/>
+  <dimension ref="H6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
+    <row r="6" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I9" s="4"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="63"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I10" s="4"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I11" s="4"/>
-      <c r="J11" s="17"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I12" s="4"/>
-      <c r="J12" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I14" s="4"/>
-      <c r="J14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="19" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+      <c r="I13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+      <c r="I14" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+      <c r="I15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I15" s="4"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I16" s="4"/>
-      <c r="J16" s="31" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H17" s="4"/>
+      <c r="I17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="L17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="M17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I18" s="4"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H18" s="4"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I19" s="4"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H19" s="4"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I20" s="4"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H20" s="4"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I21" s="4"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="6"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H21" s="4"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I22" s="4"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H22" s="4"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I23" s="4"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I24" s="4"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H24" s="4"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I25" s="4"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H25" s="4"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I26" s="4"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H26" s="4"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I27" s="4"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H27" s="4"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I28" s="4"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H28" s="4"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I29" s="4"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H29" s="4"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I30" s="4"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H30" s="4"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I31" s="4"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H31" s="4"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I32" s="4"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H32" s="4"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I33" s="4"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H33" s="4"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I34" s="4"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H34" s="4"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I35" s="4"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H35" s="4"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I37" s="4"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H36" s="4"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I38" s="4"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I39" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I6:N7"/>
+  <mergeCells count="3">
+    <mergeCell ref="H6:O7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K10:M10"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14779,28 +16769,28 @@
   <dimension ref="I6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
+      <c r="I6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -14812,10 +16802,10 @@
     </row>
     <row r="9" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I9" s="4"/>
-      <c r="M9" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="46"/>
+      <c r="M9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I10" s="4"/>
@@ -14823,48 +16813,48 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="J12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
+      <c r="J14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I15" s="4"/>
-      <c r="J15" s="19" t="s">
-        <v>13</v>
+      <c r="J15" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -14877,32 +16867,32 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
@@ -14974,7 +16964,7 @@
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
       <c r="J28" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
@@ -14983,18 +16973,18 @@
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I29" s="4"/>
-      <c r="J29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="21"/>
+      <c r="J29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I30" s="4"/>
-      <c r="J30" s="19" t="s">
-        <v>18</v>
+      <c r="J30" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -15011,48 +17001,48 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42"/>
+      <c r="J32" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="40"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
+      <c r="J33" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
+      <c r="J34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
+      <c r="J35" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I36" s="4"/>
-      <c r="J36" s="19" t="s">
-        <v>20</v>
+      <c r="J36" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -15081,11 +17071,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -15093,12 +17084,11 @@
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="J32:M32"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15111,28 +17101,28 @@
   <dimension ref="E6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
+      <c r="I6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -15144,28 +17134,28 @@
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I9" s="4"/>
-      <c r="M9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="46"/>
+      <c r="M9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="F10" s="52"/>
+      <c r="F10" s="25"/>
       <c r="I10" s="4"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="K11" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="48"/>
+      <c r="K11" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="51"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
@@ -15181,84 +17171,84 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E16" s="51"/>
+      <c r="E16" s="24"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="48"/>
+      <c r="K16" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="51"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="N20" s="6"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="K21" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="48"/>
+      <c r="K21" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="51"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I23" s="4"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I24" s="4"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I25" s="4"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="K26" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="48"/>
+      <c r="K26" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="51"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I27" s="4"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
@@ -15333,324 +17323,342 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:R39"/>
+  <dimension ref="I6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="5:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="5:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="J9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I10" s="4"/>
-      <c r="J10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="53"/>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="J11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="J12" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="53"/>
-    </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="J13" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="53"/>
-    </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.15">
+      <c r="J14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12">
-        <v>1</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="53"/>
-    </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E16" s="51"/>
+      <c r="J15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I16" s="4"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12">
-        <v>2</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="53"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="53"/>
+      <c r="J17" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12">
-        <v>5</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="53"/>
+      <c r="J18" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="56"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="53"/>
+      <c r="N20" s="6"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="53"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="53"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I23" s="4"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="53"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I24" s="4"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="53"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I25" s="4"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="53"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="53"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I27" s="4"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="53"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="53"/>
+      <c r="J28" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I29" s="4"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="53"/>
+      <c r="J29" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="37"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I30" s="4"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="53"/>
+      <c r="J30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I31" s="4"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="53"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="53"/>
-    </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="J32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="J33" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="J34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="J35" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I36" s="4"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="J36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
+      <c r="N39" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I6:O7"/>
+  <mergeCells count="28">
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15660,342 +17668,538 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I6:R39"/>
+  <dimension ref="H6:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I9" s="4"/>
-      <c r="J9" s="19" t="s">
+    <row r="6" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+    </row>
+    <row r="7" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H9" s="4"/>
+      <c r="I9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="O9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="58"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="58"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I10" s="4"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I11" s="4"/>
-      <c r="J11" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I12" s="4"/>
-      <c r="J12" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I13" s="4"/>
-      <c r="J13" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I14" s="4"/>
-      <c r="J14" s="33" t="s">
+      <c r="L15" s="58"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="58"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H17" s="4"/>
+      <c r="K17" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="P17" s="6"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H18" s="4"/>
+      <c r="K18" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="60"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="37"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I15" s="4"/>
-      <c r="J15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I16" s="4"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I17" s="4"/>
-      <c r="J17" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I18" s="4"/>
-      <c r="J18" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I19" s="4"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I20" s="4"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I21" s="4"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I22" s="4"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I23" s="4"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H21" s="4"/>
+      <c r="I21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H22" s="4"/>
+      <c r="I22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I24" s="4"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H24" s="4"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I25" s="4"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H25" s="4"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I26" s="4"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H26" s="4"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I28" s="4"/>
-      <c r="J28" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I29" s="4"/>
-      <c r="J29" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I30" s="4"/>
-      <c r="J30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I31" s="4"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H27" s="4"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H28" s="4"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H29" s="4"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="26"/>
+    </row>
+    <row r="30" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I32" s="4"/>
-      <c r="J32" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I33" s="4"/>
-      <c r="J33" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I34" s="4"/>
-      <c r="J34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I35" s="4"/>
-      <c r="J35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I36" s="4"/>
-      <c r="J36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I37" s="4"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I38" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="37"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="58"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="K38" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L39" s="58"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="58"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="58"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" s="60"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H44" s="4"/>
+      <c r="K44" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+  <mergeCells count="35">
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="H6:P7"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16005,337 +18209,491 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I6:R39"/>
+  <dimension ref="H6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I8" s="1"/>
+    <row r="6" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I9" s="4"/>
-      <c r="J9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I10" s="4"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I11" s="4"/>
-      <c r="J11" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I12" s="4"/>
-      <c r="J12" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I13" s="4"/>
-      <c r="J13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I14" s="4"/>
-      <c r="J14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I15" s="4"/>
-      <c r="J15" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H10" s="4"/>
+      <c r="I10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="Q10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+      <c r="I13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+      <c r="I14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+      <c r="I15" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I16" s="4"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I17" s="4"/>
-      <c r="J17" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I18" s="4"/>
-      <c r="J18" s="31" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H17" s="4"/>
+      <c r="I17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H18" s="4"/>
+      <c r="I18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="N18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I19" s="4"/>
+      <c r="O18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H19" s="4"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I20" s="4"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H20" s="4"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I21" s="4"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H21" s="4"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I22" s="4"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H22" s="4"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I23" s="4"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I24" s="4"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H24" s="4"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I25" s="4"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H25" s="4"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I26" s="4"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H26" s="4"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I28" s="4"/>
-      <c r="J28" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I29" s="4"/>
-      <c r="J29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I30" s="4"/>
-      <c r="J30" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H27" s="4"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H28" s="4"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H29" s="4"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I31" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I32" s="4"/>
-      <c r="J32" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I33" s="4"/>
-      <c r="J33" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I34" s="4"/>
-      <c r="J34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I35" s="4"/>
-      <c r="J35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I36" s="4"/>
-      <c r="J36" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I37" s="4"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I38" s="4"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I39" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+  <mergeCells count="2">
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="H6:R7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="593" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="593"/>
   </bookViews>
   <sheets>
     <sheet name="フロー " sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="132">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -783,12 +783,144 @@
     <t>time_register_manager</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pressmark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_author</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_publish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出履歴</t>
+    <rPh sb="0" eb="2">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history_loan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_loanedbook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_loan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_return</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username_loan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書架番号</t>
+    <rPh sb="0" eb="2">
+      <t>ショカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.top管理者 0.一般</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remainder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総計</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書室管理システムテーブル設計</t>
+    <rPh sb="0" eb="3">
+      <t>トショシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +946,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1021,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1184,6 +1324,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,9 +1339,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13429,7 +13613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -13616,17 +13800,17 @@
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="68"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.15">
@@ -14431,7 +14615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G6:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -14930,66 +15114,184 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G13:M36"/>
+  <dimension ref="G5:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G13" s="69" t="s">
+    <row r="5" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G5" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="79"/>
+    </row>
+    <row r="6" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="82"/>
+    </row>
+    <row r="7" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="82"/>
+    </row>
+    <row r="8" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="85"/>
+    </row>
+    <row r="13" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G13" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="57" t="s">
         <v>96</v>
       </c>
       <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G14" s="69" t="s">
+      <c r="P13" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="57"/>
+    </row>
+    <row r="14" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G14" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="57" t="s">
         <v>97</v>
       </c>
       <c r="J14" s="57"/>
-    </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G15" s="69" t="s">
+      <c r="P14" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="57"/>
+    </row>
+    <row r="15" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="57" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="57"/>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G17" s="69" t="s">
+      <c r="P15" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="S15" s="57"/>
+    </row>
+    <row r="17" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G17" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70" t="s">
+      <c r="H17" s="73"/>
+      <c r="I17" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="M17" s="70" t="s">
+      <c r="M17" s="73" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="N17" s="73"/>
+      <c r="P17" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="T17" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="V17" s="74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G18" s="71" t="s">
         <v>84</v>
       </c>
@@ -14998,9 +15300,19 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="P18" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G19" s="57" t="s">
         <v>85</v>
       </c>
@@ -15009,9 +15321,19 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="P19" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="20" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G20" s="57" t="s">
         <v>86</v>
       </c>
@@ -15020,9 +15342,19 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="P20" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+    </row>
+    <row r="21" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G21" s="57" t="s">
         <v>87</v>
       </c>
@@ -15031,9 +15363,21 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M21" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="76"/>
+      <c r="P21" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+    </row>
+    <row r="22" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G22" s="57" t="s">
         <v>107</v>
       </c>
@@ -15042,129 +15386,324 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G27" s="69" t="s">
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="P22" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+    </row>
+    <row r="27" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G27" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="69"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="57" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J27" s="57"/>
-    </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G28" s="69" t="s">
+      <c r="P27" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27" s="57"/>
+    </row>
+    <row r="28" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G28" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="69"/>
+      <c r="H28" s="70"/>
       <c r="I28" s="57" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J28" s="57"/>
-    </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G29" s="69" t="s">
+      <c r="P28" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="S28" s="57"/>
+    </row>
+    <row r="29" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G29" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="57" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J29" s="57"/>
-    </row>
-    <row r="31" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G31" s="69" t="s">
+      <c r="P29" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" s="57"/>
+    </row>
+    <row r="31" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G31" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70" t="s">
+      <c r="H31" s="70"/>
+      <c r="I31" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="M31" s="70" t="s">
+      <c r="M31" s="75" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="P31" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="S31" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="V31" s="75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G32" s="71" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H32" s="71"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M32" s="13"/>
+      <c r="P32" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G33" s="57" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H33" s="57"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M33" s="13"/>
+      <c r="P33" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G34" s="57" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H34" s="57"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M34" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+    </row>
+    <row r="35" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G35" s="57" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H35" s="57"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M35" s="13"/>
+      <c r="P35" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G36" s="57" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H36" s="57"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
+      <c r="M36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G37" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="57"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P37" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G38" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G39" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="57"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G36:H36"/>
+  <mergeCells count="60">
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G5:V8"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="G15:H15"/>
@@ -16769,7 +17308,7 @@
   <dimension ref="I6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17671,7 +18210,7 @@
   <dimension ref="H6:U45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="593"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="811" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="フロー " sheetId="4" r:id="rId1"/>
@@ -20,14 +20,13 @@
     <sheet name="画面設計(4)" sheetId="9" r:id="rId11"/>
     <sheet name="画面設計(9)" sheetId="14" r:id="rId12"/>
     <sheet name="テーブル" sheetId="15" r:id="rId13"/>
-    <sheet name="ゴミ箱" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -158,16 +157,6 @@
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者編集</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,45 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書籍ID</t>
-    <rPh sb="0" eb="2">
-      <t>ショセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書籍編集</t>
-    <rPh sb="0" eb="2">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書名</t>
-    <rPh sb="0" eb="2">
-      <t>ショメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>貸出履歴画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>借りる時間</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -474,26 +424,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>貸出履歴画面(ユーザー)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>状況</t>
     <rPh sb="0" eb="2">
       <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>借りる中</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1161,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1207,11 +1140,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,7 +1170,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,28 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1276,6 +1203,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,19 +1239,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1309,52 +1254,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1383,6 +1295,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13613,7 +13540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="L55" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -13637,32 +13564,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
+      <c r="H6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -13681,7 +13608,7 @@
       <c r="D9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -13690,7 +13617,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="Q9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" s="23"/>
     </row>
@@ -13721,19 +13648,19 @@
     <row r="12" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H12" s="4"/>
       <c r="I12" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P12" s="12"/>
       <c r="R12" s="6"/>
@@ -13741,26 +13668,26 @@
     <row r="13" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H13" s="4"/>
       <c r="I13" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="K13" s="65" t="s">
-        <v>71</v>
+      <c r="K13" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P13" s="12"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="28" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="5"/>
@@ -13800,29 +13727,29 @@
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68"/>
+      <c r="I17" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
       <c r="I18" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>5</v>
@@ -13834,13 +13761,13 @@
         <v>7</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R18" s="6"/>
     </row>
@@ -13856,7 +13783,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R19" s="6"/>
     </row>
@@ -13871,7 +13798,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R20" s="6"/>
     </row>
@@ -13886,7 +13813,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R21" s="6"/>
     </row>
@@ -13901,7 +13828,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R22" s="6"/>
     </row>
@@ -13916,7 +13843,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R23" s="6"/>
     </row>
@@ -13931,7 +13858,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R24" s="6"/>
     </row>
@@ -13946,7 +13873,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R25" s="6"/>
     </row>
@@ -13961,7 +13888,7 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R26" s="6"/>
     </row>
@@ -14156,30 +14083,30 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="H6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -14208,7 +14135,7 @@
     <row r="10" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H10" s="4"/>
       <c r="I10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -14216,7 +14143,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="P10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -14245,15 +14172,15 @@
     <row r="13" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H13" s="4"/>
       <c r="I13" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="5"/>
@@ -14261,16 +14188,16 @@
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="65" t="s">
-        <v>71</v>
+      <c r="I14" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="5"/>
@@ -14317,10 +14244,10 @@
     <row r="18" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
       <c r="I18" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>5</v>
@@ -14332,13 +14259,13 @@
         <v>7</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="6"/>
     </row>
@@ -14364,7 +14291,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="5"/>
@@ -14379,7 +14306,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="6"/>
     </row>
@@ -14405,7 +14332,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="6"/>
     </row>
@@ -14622,32 +14549,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="G6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G8" s="1"/>
@@ -14665,7 +14592,7 @@
     <row r="9" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G9" s="4"/>
       <c r="H9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -14674,7 +14601,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="P9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="23"/>
     </row>
@@ -14705,19 +14632,19 @@
     <row r="12" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G12" s="4"/>
       <c r="H12" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O12" s="12"/>
       <c r="Q12" s="6"/>
@@ -14725,26 +14652,26 @@
     <row r="13" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G13" s="4"/>
       <c r="H13" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="65" t="s">
-        <v>71</v>
+      <c r="J13" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O13" s="12"/>
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G14" s="4"/>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="5"/>
@@ -14784,29 +14711,29 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" s="4"/>
-      <c r="H17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
+      <c r="H17" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G18" s="4"/>
       <c r="H18" s="18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>5</v>
@@ -14818,13 +14745,13 @@
         <v>7</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="6"/>
     </row>
@@ -14838,7 +14765,7 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="28"/>
+      <c r="P19" s="27"/>
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.15">
@@ -14851,7 +14778,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="28"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.15">
@@ -14864,7 +14791,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="28"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.15">
@@ -14877,7 +14804,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="28"/>
+      <c r="P22" s="27"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.15">
@@ -14890,7 +14817,7 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="28"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.15">
@@ -14903,7 +14830,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
-      <c r="P24" s="28"/>
+      <c r="P24" s="27"/>
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.15">
@@ -14916,7 +14843,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
-      <c r="P25" s="28"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.15">
@@ -14929,7 +14856,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="28"/>
+      <c r="P26" s="27"/>
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.15">
@@ -15116,196 +15043,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:V68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="5" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G5" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="79"/>
+      <c r="G5" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="72"/>
     </row>
     <row r="6" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="82"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="75"/>
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="82"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="75"/>
     </row>
     <row r="8" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="85"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="78"/>
     </row>
     <row r="13" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G13" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="57" t="s">
+      <c r="G13" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="82"/>
+      <c r="I13" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="66"/>
+      <c r="P13" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" s="66"/>
+    </row>
+    <row r="14" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G14" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="82"/>
+      <c r="I14" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="66"/>
+      <c r="P14" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="66"/>
+    </row>
+    <row r="15" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G15" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="I15" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="66"/>
+      <c r="P15" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="P13" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="57"/>
-    </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G14" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="P14" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="57"/>
-    </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G15" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="P15" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="S15" s="57"/>
+      <c r="S15" s="66"/>
     </row>
     <row r="17" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G17" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="73"/>
-      <c r="P17" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="T17" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="V17" s="74" t="s">
-        <v>93</v>
+      <c r="G17" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="80"/>
+      <c r="P17" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" s="32" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G18" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="71"/>
+      <c r="G18" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="83"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="P18" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="71"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="P18" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="83"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
@@ -15313,20 +15240,20 @@
       <c r="V18" s="12"/>
     </row>
     <row r="19" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G19" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="57"/>
+      <c r="G19" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="66"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="P19" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="57"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="P19" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="66"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
@@ -15334,20 +15261,20 @@
       <c r="V19" s="12"/>
     </row>
     <row r="20" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G20" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="57"/>
+      <c r="G20" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="66"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="P20" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="57"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="P20" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="66"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
@@ -15355,22 +15282,22 @@
       <c r="V20" s="12"/>
     </row>
     <row r="21" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G21" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="57"/>
+      <c r="G21" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="66"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="76"/>
-      <c r="P21" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="57"/>
+      <c r="M21" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="81"/>
+      <c r="P21" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="66"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
@@ -15378,20 +15305,20 @@
       <c r="V21" s="12"/>
     </row>
     <row r="22" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G22" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="57"/>
+      <c r="G22" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="66"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="P22" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="57"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="P22" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="66"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
@@ -15399,113 +15326,113 @@
       <c r="V22" s="12"/>
     </row>
     <row r="27" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G27" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="57"/>
-      <c r="P27" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="S27" s="57"/>
+      <c r="G27" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="82"/>
+      <c r="I27" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="66"/>
+      <c r="P27" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27" s="66"/>
     </row>
     <row r="28" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G28" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="57" t="s">
+      <c r="G28" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="82"/>
+      <c r="I28" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="66"/>
+      <c r="P28" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="P28" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="S28" s="57"/>
+      <c r="S28" s="66"/>
     </row>
     <row r="29" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G29" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="57"/>
-      <c r="P29" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="S29" s="57"/>
+      <c r="G29" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="82"/>
+      <c r="I29" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="66"/>
+      <c r="P29" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="S29" s="66"/>
     </row>
     <row r="31" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G31" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="S31" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="T31" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="V31" s="75" t="s">
-        <v>93</v>
+      <c r="G31" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="82"/>
+      <c r="I31" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="S31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="T31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="U31" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="V31" s="33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G32" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="71"/>
+      <c r="G32" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="83"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
-      <c r="P32" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q32" s="71"/>
+      <c r="P32" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="83"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
@@ -15513,19 +15440,19 @@
       <c r="V32" s="12"/>
     </row>
     <row r="33" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G33" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="57"/>
+      <c r="G33" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="66"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="P33" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q33" s="57"/>
+      <c r="P33" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q33" s="66"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
@@ -15533,21 +15460,21 @@
       <c r="V33" s="12"/>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G34" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="57"/>
+      <c r="G34" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="66"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="P34" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q34" s="57"/>
+        <v>116</v>
+      </c>
+      <c r="P34" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q34" s="66"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
@@ -15555,19 +15482,19 @@
       <c r="V34" s="12"/>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G35" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="57"/>
+      <c r="G35" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="66"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="P35" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q35" s="57"/>
+      <c r="P35" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q35" s="66"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
@@ -15575,10 +15502,10 @@
       <c r="V35" s="12"/>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G36" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="57"/>
+      <c r="G36" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="66"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -15586,10 +15513,10 @@
       <c r="M36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q36" s="57"/>
+      <c r="P36" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q36" s="66"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
@@ -15597,21 +15524,21 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G37" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="57"/>
+      <c r="G37" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="66"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="P37" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q37" s="57"/>
+        <v>118</v>
+      </c>
+      <c r="P37" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q37" s="66"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
@@ -15619,34 +15546,34 @@
       <c r="V37" s="12"/>
     </row>
     <row r="38" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G38" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="57"/>
+      <c r="G38" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="66"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G39" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="57"/>
+      <c r="G39" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="66"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="66" t="s">
+      <c r="M39" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -15655,1223 +15582,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G5:V8"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G5:V8"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="R28:S28"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:Y85"/>
-  <sheetViews>
-    <sheetView topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H6" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B8" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="37"/>
-      <c r="K8" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B9" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="Q9" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40"/>
-      <c r="V9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B10" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="37"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="Q10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="37"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="H11" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="Q11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="49"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="37"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="Q12" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="37"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="Q13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="Q15" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="H16" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="Q16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="H21" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="K23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B24" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="Q26" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="45"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="Q27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27" s="37"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="37"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B28" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="G28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="Q28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B29" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="Q30" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="40"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B31" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="37"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="Q31" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R31" s="36"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="37"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="Q32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="Q33" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="36"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="37"/>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="Q34" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U38" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U39" s="12"/>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U40" s="12"/>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U41" s="12"/>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U42" s="12"/>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U43" s="12"/>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U44" s="12"/>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U45" s="12"/>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="U46" s="12"/>
-    </row>
-    <row r="47" spans="3:21" ht="24" x14ac:dyDescent="0.15">
-      <c r="C47" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="42"/>
-      <c r="H47" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="31"/>
-      <c r="U47" s="12"/>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C48" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="34"/>
-      <c r="U48" s="12"/>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C49" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="3"/>
-      <c r="U49" s="12"/>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C50" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="23"/>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C51" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="H51" s="4"/>
-      <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C52" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="6"/>
-      <c r="R52" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="31"/>
-    </row>
-    <row r="53" spans="3:23" ht="24" x14ac:dyDescent="0.15">
-      <c r="H53" s="4"/>
-      <c r="I53" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M53" s="6"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="34"/>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H54" s="4"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="6"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H55" s="4"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="6"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="V55" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="W55" s="23"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H56" s="4"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="6"/>
-      <c r="R56" s="4"/>
-      <c r="W56" s="6"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H57" s="4"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="6"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="6"/>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H58" s="4"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="6"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="T58" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="U58" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="V58" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="W58" s="6"/>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H59" s="4"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="6"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="V59" s="12"/>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H60" s="4"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="6"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V60" s="12"/>
-      <c r="W60" s="6"/>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H61" s="4"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="6"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="6"/>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H62" s="4"/>
-      <c r="M62" s="6"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="6"/>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H63" s="4"/>
-      <c r="M63" s="6"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="6"/>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="H64" s="4"/>
-      <c r="M64" s="6"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="6"/>
-    </row>
-    <row r="65" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H65" s="4"/>
-      <c r="M65" s="6"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="6"/>
-    </row>
-    <row r="66" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H66" s="4"/>
-      <c r="M66" s="6"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="6"/>
-    </row>
-    <row r="67" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H67" s="4"/>
-      <c r="M67" s="6"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="6"/>
-    </row>
-    <row r="68" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H68" s="4"/>
-      <c r="M68" s="6"/>
-      <c r="R68" s="4"/>
-      <c r="W68" s="6"/>
-    </row>
-    <row r="69" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H69" s="4"/>
-      <c r="M69" s="6"/>
-      <c r="R69" s="4"/>
-      <c r="W69" s="6"/>
-    </row>
-    <row r="70" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H70" s="4"/>
-      <c r="M70" s="6"/>
-      <c r="R70" s="4"/>
-      <c r="W70" s="6"/>
-    </row>
-    <row r="71" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H71" s="4"/>
-      <c r="M71" s="6"/>
-      <c r="R71" s="4"/>
-      <c r="W71" s="6"/>
-    </row>
-    <row r="72" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H72" s="4"/>
-      <c r="M72" s="6"/>
-      <c r="R72" s="4"/>
-      <c r="W72" s="6"/>
-    </row>
-    <row r="73" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H73" s="4"/>
-      <c r="M73" s="6"/>
-      <c r="R73" s="4"/>
-      <c r="W73" s="6"/>
-    </row>
-    <row r="74" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H74" s="4"/>
-      <c r="M74" s="6"/>
-      <c r="R74" s="4"/>
-      <c r="W74" s="6"/>
-    </row>
-    <row r="75" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="H75" s="4"/>
-      <c r="M75" s="6"/>
-      <c r="R75" s="4"/>
-      <c r="W75" s="6"/>
-    </row>
-    <row r="76" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D76" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="4"/>
-      <c r="M76" s="6"/>
-      <c r="R76" s="4"/>
-      <c r="W76" s="6"/>
-    </row>
-    <row r="77" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="4"/>
-      <c r="M77" s="6"/>
-      <c r="R77" s="4"/>
-      <c r="W77" s="6"/>
-    </row>
-    <row r="78" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="4"/>
-      <c r="M78" s="6"/>
-      <c r="R78" s="4"/>
-      <c r="W78" s="6"/>
-    </row>
-    <row r="79" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="6"/>
-      <c r="R79" s="4"/>
-      <c r="W79" s="6"/>
-    </row>
-    <row r="80" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="9"/>
-      <c r="R80" s="4"/>
-      <c r="W80" s="6"/>
-    </row>
-    <row r="81" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="R81" s="4"/>
-      <c r="W81" s="6"/>
-    </row>
-    <row r="82" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="R82" s="4"/>
-      <c r="W82" s="6"/>
-    </row>
-    <row r="83" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="R83" s="4"/>
-      <c r="W83" s="6"/>
-    </row>
-    <row r="84" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="6"/>
-    </row>
-    <row r="85" spans="4:23" x14ac:dyDescent="0.15">
-      <c r="R85" s="7"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="H47:M48"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="R52:W53"/>
-    <mergeCell ref="S57:V57"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16923,26 +15693,26 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="63"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -16960,10 +15730,10 @@
       <c r="J9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="64"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.15">
@@ -16972,9 +15742,9 @@
       <c r="J10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
@@ -17002,31 +15772,31 @@
     <row r="13" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H13" s="4"/>
       <c r="I13" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="65" t="s">
-        <v>71</v>
+      <c r="I14" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="6"/>
@@ -17050,10 +15820,10 @@
     <row r="17" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
       <c r="I17" s="18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>6</v>
@@ -17062,7 +15832,7 @@
         <v>7</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N17" s="18" t="s">
         <v>8</v>
@@ -17314,22 +16084,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17342,7 +16112,7 @@
     <row r="9" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I9" s="4"/>
       <c r="M9" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -17352,42 +16122,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
+      <c r="J11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="37"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="37"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="37"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -17406,12 +16176,12 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -17502,12 +16272,12 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
@@ -17515,9 +16285,9 @@
       <c r="J29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -17540,48 +16310,48 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
+      <c r="J32" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="35" t="s">
+      <c r="J33" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="37"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="42"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+      <c r="J34" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="37"/>
+      <c r="J35" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="41"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I36" s="4"/>
       <c r="J36" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -17610,12 +16380,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -17623,11 +16387,17 @@
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J11:M11"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17646,22 +16416,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="I6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17674,7 +16444,7 @@
     <row r="9" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I9" s="4"/>
       <c r="M9" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -17685,16 +16455,16 @@
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="K11" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="51"/>
+      <c r="K11" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="57"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
@@ -17712,16 +16482,16 @@
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
       <c r="E16" s="24"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="51"/>
+      <c r="K16" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="57"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -17746,16 +16516,16 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="K21" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="51"/>
+      <c r="K21" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="57"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
@@ -17778,16 +16548,16 @@
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="K26" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="51"/>
+      <c r="K26" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="57"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I27" s="4"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
@@ -17871,22 +16641,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="I6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17899,10 +16669,10 @@
     <row r="9" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I9" s="4"/>
       <c r="J9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -17912,42 +16682,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
+      <c r="J11" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="37"/>
+      <c r="J12" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="45"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="37"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="37"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -17966,20 +16736,20 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="J17" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="J18" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="56"/>
+      <c r="J18" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="61"/>
       <c r="L18" s="21"/>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -17988,16 +16758,16 @@
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="6"/>
@@ -18006,48 +16776,48 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I23" s="4"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I24" s="4"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I25" s="4"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="6"/>
@@ -18062,22 +16832,22 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
+      <c r="J28" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I29" s="4"/>
-      <c r="J29" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="37"/>
+      <c r="J29" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="42"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="42"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -18100,48 +16870,48 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
+      <c r="J32" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="37"/>
+      <c r="J33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="42"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+      <c r="J34" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="37"/>
+      <c r="J35" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="41"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I36" s="4"/>
       <c r="J36" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -18170,12 +16940,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="J17:M17"/>
@@ -18184,12 +16954,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="J21:K21"/>
@@ -18198,6 +16962,12 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18216,28 +16986,28 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
+      <c r="H6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
     </row>
     <row r="8" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H8" s="4"/>
@@ -18253,11 +17023,11 @@
     <row r="9" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H9" s="4"/>
       <c r="I9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="5"/>
       <c r="O9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="6"/>
     </row>
@@ -18272,12 +17042,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
+      <c r="K11" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
     </row>
@@ -18285,12 +17055,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="K12" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
     </row>
@@ -18298,12 +17068,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="K13" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
     </row>
@@ -18311,12 +17081,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="S14" s="5"/>
@@ -18327,12 +17097,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
+      <c r="K15" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="S15" s="5"/>
@@ -18343,12 +17113,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="S16" s="5"/>
@@ -18357,12 +17127,12 @@
     </row>
     <row r="17" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="K17" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="K17" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
       <c r="P17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -18370,12 +17140,12 @@
     </row>
     <row r="18" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
-      <c r="K18" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="37"/>
+      <c r="K18" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="64"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="42"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.15">
@@ -18399,24 +17169,24 @@
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H21" s="4"/>
-      <c r="I21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
+      <c r="I21" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H22" s="4"/>
       <c r="I22" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>5</v>
@@ -18428,7 +17198,7 @@
         <v>7</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O22" s="18" t="s">
         <v>8</v>
@@ -18534,12 +17304,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
+      <c r="K32" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="55"/>
       <c r="O32" s="5"/>
       <c r="P32" s="6"/>
     </row>
@@ -18547,12 +17317,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="37"/>
+      <c r="K33" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="42"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="42"/>
       <c r="O33" s="5"/>
       <c r="P33" s="6"/>
     </row>
@@ -18584,12 +17354,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
+      <c r="K36" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="5"/>
       <c r="P36" s="6"/>
     </row>
@@ -18597,12 +17367,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" s="58"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
+      <c r="K37" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
       <c r="O37" s="5"/>
       <c r="P37" s="6"/>
     </row>
@@ -18610,12 +17380,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
+      <c r="K38" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
       <c r="O38" s="5"/>
       <c r="P38" s="6"/>
     </row>
@@ -18623,12 +17393,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="58" t="s">
+      <c r="K39" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="58"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
       <c r="O39" s="5"/>
       <c r="P39" s="6"/>
     </row>
@@ -18636,12 +17406,12 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="L40" s="58"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
+      <c r="K40" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="65"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
       <c r="O40" s="5"/>
       <c r="P40" s="6"/>
     </row>
@@ -18649,12 +17419,12 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="L41" s="58"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
+      <c r="K41" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="65"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
       <c r="O41" s="5"/>
       <c r="P41" s="6"/>
     </row>
@@ -18662,12 +17432,12 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
+      <c r="K42" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
       <c r="O42" s="5"/>
       <c r="P42" s="6"/>
     </row>
@@ -18675,19 +17445,19 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="L43" s="60"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="37"/>
+      <c r="K43" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="64"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="42"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H44" s="4"/>
-      <c r="K44" s="62" t="s">
-        <v>19</v>
+      <c r="K44" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="P44" s="6"/>
     </row>
@@ -18704,30 +17474,24 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="I21:O21"/>
     <mergeCell ref="H6:P7"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="K11:N11"/>
@@ -18737,8 +17501,14 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18757,32 +17527,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
+      <c r="H6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -18805,7 +17575,7 @@
     <row r="10" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H10" s="4"/>
       <c r="I10" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -18814,7 +17584,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="Q10" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10" s="6"/>
     </row>
@@ -18845,19 +17615,19 @@
     <row r="13" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H13" s="4"/>
       <c r="I13" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P13" s="12"/>
       <c r="R13" s="6"/>
@@ -18865,26 +17635,26 @@
     <row r="14" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
       <c r="I14" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="65" t="s">
-        <v>71</v>
+      <c r="K14" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="P14" s="12"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H15" s="4"/>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="28" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="5"/>
@@ -18912,29 +17682,29 @@
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
+      <c r="I17" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
       <c r="I18" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>5</v>
@@ -18946,13 +17716,13 @@
         <v>7</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="R18" s="6"/>
     </row>
@@ -18966,7 +17736,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="28"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.15">
@@ -18979,7 +17749,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="28"/>
+      <c r="Q20" s="27"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.15">
@@ -18992,7 +17762,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="28"/>
+      <c r="Q21" s="27"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.15">
@@ -19005,7 +17775,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="28"/>
+      <c r="Q22" s="27"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.15">
@@ -19018,7 +17788,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="28"/>
+      <c r="Q23" s="27"/>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.15">
@@ -19031,7 +17801,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="28"/>
+      <c r="Q24" s="27"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.15">
@@ -19044,7 +17814,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="28"/>
+      <c r="Q25" s="27"/>
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.15">
@@ -19057,7 +17827,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="28"/>
+      <c r="Q26" s="27"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="8:18" x14ac:dyDescent="0.15">

--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="593"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="597" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="フロー " sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="155">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -680,13 +680,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
@@ -858,16 +851,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書架番号</t>
-    <rPh sb="0" eb="2">
-      <t>ショカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.top管理者 0.一般</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -878,28 +861,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出版時間</t>
-    <rPh sb="0" eb="2">
-      <t>シュッパン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>remainder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総計</t>
-    <rPh sb="0" eb="2">
-      <t>ソウケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -913,6 +879,207 @@
     <rPh sb="13" eb="15">
       <t>セッケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者名</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者パースワード</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者アカウント</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍名</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書架番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著作者名</t>
+    <rPh sb="0" eb="2">
+      <t>チョサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍ＩＳＢＮ</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目(英文)</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生番号</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生パースワード</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生メール</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時間</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生名</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>借りる学生名</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出時間</t>
+    <rPh sb="0" eb="2">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者判断</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -961,7 +1128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +1156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1213,6 +1386,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1222,7 +1413,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,28 +1431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1276,6 +1446,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,19 +1482,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1309,52 +1497,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1384,6 +1539,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13613,7 +13798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -13637,32 +13822,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -13744,7 +13929,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="32" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="19"/>
@@ -13760,7 +13945,7 @@
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="30" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="5"/>
@@ -13800,17 +13985,17 @@
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.15">
@@ -14156,30 +14341,30 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -14261,7 +14446,7 @@
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="32" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="19"/>
@@ -14622,32 +14807,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G8" s="1"/>
@@ -14728,7 +14913,7 @@
         <v>69</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="32" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="19"/>
@@ -14744,7 +14929,7 @@
     </row>
     <row r="14" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G14" s="4"/>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="5"/>
@@ -14784,17 +14969,17 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" s="4"/>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.15">
@@ -15114,539 +15299,672 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G5:V68"/>
+  <dimension ref="E5:Z68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G5" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="79"/>
-    </row>
-    <row r="6" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="82"/>
-    </row>
-    <row r="7" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="82"/>
-    </row>
-    <row r="8" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="85"/>
-    </row>
-    <row r="13" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G13" s="70" t="s">
+    <row r="5" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="G5" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="73"/>
+    </row>
+    <row r="6" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="76"/>
+    </row>
+    <row r="7" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="76"/>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="79"/>
+    </row>
+    <row r="13" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="E13" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="R13" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="83"/>
+      <c r="T13" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" s="67"/>
+    </row>
+    <row r="14" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="E14" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="57" t="s">
+      <c r="F14" s="83"/>
+      <c r="G14" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="P13" s="70" t="s">
+      <c r="H14" s="67"/>
+      <c r="R14" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="57" t="s">
+      <c r="S14" s="83"/>
+      <c r="T14" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="S13" s="57"/>
-    </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G14" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="57" t="s">
+      <c r="U14" s="67"/>
+    </row>
+    <row r="15" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="E15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="83"/>
+      <c r="G15" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="P14" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="57"/>
-    </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G15" s="70" t="s">
+      <c r="H15" s="67"/>
+      <c r="R15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="S15" s="83"/>
+      <c r="T15" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="67"/>
+    </row>
+    <row r="17" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E17" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="87"/>
+      <c r="G17" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="P15" s="70" t="s">
+      <c r="N17" s="81"/>
+      <c r="R17" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="S17" s="87"/>
+      <c r="T17" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="U17" s="81"/>
+      <c r="V17" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="W17" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y17" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="S15" s="57"/>
-    </row>
-    <row r="17" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G17" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="73"/>
-      <c r="P17" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="T17" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="V17" s="74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G18" s="71" t="s">
+    </row>
+    <row r="18" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E18" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="71"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="P18" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="12"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="R18" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="U18" s="67"/>
       <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G19" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="57"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E19" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="67"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="P19" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G20" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="57"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="R19" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" s="84"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+    </row>
+    <row r="20" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E20" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="67"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="P20" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="R20" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" s="67"/>
       <c r="V20" s="12"/>
-    </row>
-    <row r="21" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G21" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="57"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E21" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="67"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="76"/>
-      <c r="P21" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="R21" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="67"/>
       <c r="V21" s="12"/>
-    </row>
-    <row r="22" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G22" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="57"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E22" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="67"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="P22" s="57" t="s">
+      <c r="M22" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="82"/>
+      <c r="R22" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" s="67"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E23" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-    </row>
-    <row r="27" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G27" s="70" t="s">
+      <c r="H23" s="67"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="R23" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="67"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="27" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E27" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="83"/>
+      <c r="G27" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="67"/>
+      <c r="R27" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="S27" s="83"/>
+      <c r="T27" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27" s="67"/>
+    </row>
+    <row r="28" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E28" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="57"/>
-      <c r="P27" s="70" t="s">
+      <c r="F28" s="83"/>
+      <c r="G28" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="67"/>
+      <c r="R28" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="57" t="s">
+      <c r="S28" s="83"/>
+      <c r="T28" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="S27" s="57"/>
-    </row>
-    <row r="28" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G28" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="57" t="s">
+      <c r="U28" s="67"/>
+    </row>
+    <row r="29" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E29" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="83"/>
+      <c r="G29" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="P28" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="S28" s="57"/>
-    </row>
-    <row r="29" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G29" s="70" t="s">
+      <c r="H29" s="67"/>
+      <c r="R29" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="S29" s="83"/>
+      <c r="T29" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="U29" s="67"/>
+    </row>
+    <row r="31" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E31" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="87"/>
+      <c r="G31" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="83"/>
+      <c r="I31" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="57" t="s">
+      <c r="R31" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="S31" s="87"/>
+      <c r="T31" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="U31" s="83"/>
+      <c r="V31" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="W31" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="X31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y31" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z31" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E32" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="P29" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="S29" s="57"/>
-    </row>
-    <row r="31" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G31" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="S31" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="T31" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="V31" s="75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G32" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="71"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
-      <c r="P32" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-    </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G33" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="57"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="U32" s="84"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E33" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="67"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="P33" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
+      <c r="R33" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="U33" s="67"/>
       <c r="V33" s="12"/>
-    </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G34" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="57"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E34" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="67"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="P34" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
+      <c r="M34" s="29"/>
+      <c r="R34" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="U34" s="67"/>
       <c r="V34" s="12"/>
-    </row>
-    <row r="35" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G35" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="57"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E35" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="67"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="P35" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
+      <c r="R35" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="U35" s="67"/>
       <c r="V35" s="12"/>
-    </row>
-    <row r="36" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G36" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="57"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+    </row>
+    <row r="36" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E36" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="67"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
+      <c r="M36" s="29"/>
+      <c r="R36" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="U36" s="67"/>
       <c r="V36" s="12"/>
-    </row>
-    <row r="37" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G37" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="57"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+    </row>
+    <row r="37" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E37" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="67"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="P37" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
+      <c r="M37" s="29"/>
+      <c r="R37" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="U37" s="67"/>
       <c r="V37" s="12"/>
-    </row>
-    <row r="38" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G38" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="57"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E38" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="67"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G39" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="57"/>
+      <c r="M38" s="29"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+    </row>
+    <row r="39" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E39" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="67"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="66" t="s">
-        <v>8</v>
-      </c>
+      <c r="M39" s="88"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
     </row>
     <row r="68" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -15654,70 +15972,104 @@
       <c r="M68" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G5:V8"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
+  <mergeCells count="93">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G5:V8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15725,59 +16077,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:Y85"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="R95" sqref="R95:X119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="51"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="37"/>
-      <c r="K8" s="55" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="43"/>
+      <c r="K8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="56"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="21"/>
       <c r="N8" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="43"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
       <c r="V9" s="18" t="s">
         <v>5</v>
       </c>
@@ -15792,22 +16144,22 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="37"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="43"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="37"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="43"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -15822,20 +16174,20 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="58"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="Q11" s="48" t="s">
+      <c r="Q11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="49"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="37"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="43"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -15844,18 +16196,18 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="Q12" s="48" t="s">
+      <c r="Q12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="37"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="43"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -15864,16 +16216,16 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="Q13" s="16" t="s">
@@ -15900,8 +16252,8 @@
       <c r="E14" s="21"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="V14" s="12"/>
@@ -15918,16 +16270,16 @@
       <c r="E15" s="22"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="Q15" s="38" t="s">
+      <c r="Q15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="53"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -15938,12 +16290,12 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
+      <c r="I16" s="58"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="Q16" s="18" t="s">
@@ -15968,8 +16320,8 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -16032,10 +16384,10 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="51"/>
+      <c r="I21" s="58"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -16050,8 +16402,8 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -16088,12 +16440,12 @@
       <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
@@ -16111,9 +16463,9 @@
       <c r="B25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -16138,12 +16490,12 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="Q26" s="43" t="s">
+      <c r="Q26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="45"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="56"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -16158,24 +16510,24 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="Q27" s="35" t="s">
+      <c r="Q27" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="37"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="37"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="43"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
       <c r="G28" s="18" t="s">
         <v>48</v>
       </c>
@@ -16204,12 +16556,12 @@
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -16224,12 +16576,12 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -16238,20 +16590,20 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="Q30" s="38" t="s">
+      <c r="Q30" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="40"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="53"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="37"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -16260,12 +16612,12 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="Q31" s="35" t="s">
+      <c r="Q31" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="36"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="37"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="43"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
@@ -16278,24 +16630,24 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="Q32" s="35" t="s">
+      <c r="Q32" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="Q33" s="35" t="s">
+      <c r="Q33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="36"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="37"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="43"/>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G34" s="12"/>
@@ -16350,45 +16702,45 @@
     <row r="46" spans="3:21" x14ac:dyDescent="0.15">
       <c r="U46" s="12"/>
     </row>
-    <row r="47" spans="3:21" ht="24" x14ac:dyDescent="0.15">
-      <c r="C47" s="61" t="s">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C47" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="42"/>
-      <c r="H47" s="29" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="50"/>
+      <c r="H47" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="31"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="37"/>
       <c r="U47" s="12"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="34"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="40"/>
       <c r="U48" s="12"/>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -16398,12 +16750,12 @@
       <c r="U49" s="12"/>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
       <c r="H50" s="4"/>
       <c r="I50" s="16" t="s">
         <v>38</v>
@@ -16414,37 +16766,37 @@
       <c r="M50" s="23"/>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
       <c r="H51" s="4"/>
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="30" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="38" t="s">
+      <c r="I52" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
       <c r="M52" s="6"/>
-      <c r="R52" s="29" t="s">
+      <c r="R52" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="31"/>
-    </row>
-    <row r="53" spans="3:23" ht="24" x14ac:dyDescent="0.15">
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="37"/>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H53" s="4"/>
       <c r="I53" s="18" t="s">
         <v>48</v>
@@ -16459,12 +16811,12 @@
         <v>52</v>
       </c>
       <c r="M53" s="6"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="34"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="40"/>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H54" s="4"/>
@@ -16514,12 +16866,12 @@
       <c r="L57" s="12"/>
       <c r="M57" s="6"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="38" t="s">
+      <c r="S57" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="40"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="53"/>
       <c r="W57" s="6"/>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.15">
@@ -16810,6 +17162,54 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="H47:M48"/>
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="R52:W53"/>
@@ -16824,54 +17224,6 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16883,7 +17235,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16923,26 +17275,26 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="63"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -16960,10 +17312,10 @@
       <c r="J9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="64"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.15">
@@ -16972,9 +17324,9 @@
       <c r="J10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
@@ -17017,7 +17369,7 @@
     </row>
     <row r="14" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="32" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="19"/>
@@ -17314,22 +17666,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17352,42 +17704,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="37"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="37"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="37"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -17406,12 +17758,12 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -17502,12 +17854,12 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
@@ -17515,9 +17867,9 @@
       <c r="J29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -17540,42 +17892,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="35" t="s">
+      <c r="J33" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="37"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="43"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="37"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="43"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -17610,12 +17962,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -17623,11 +17969,17 @@
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J11:M11"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17640,28 +17992,28 @@
   <dimension ref="E6:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17685,16 +18037,16 @@
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="51"/>
+      <c r="L11" s="58"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
@@ -17712,16 +18064,16 @@
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
       <c r="E16" s="24"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="51"/>
+      <c r="L16" s="58"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -17746,16 +18098,16 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="51"/>
+      <c r="L21" s="58"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
@@ -17778,16 +18130,16 @@
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="51"/>
+      <c r="L26" s="58"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I27" s="4"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
@@ -17871,22 +18223,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17912,42 +18264,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="37"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="37"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="37"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -17966,20 +18318,20 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="56"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="21"/>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -17988,16 +18340,16 @@
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="6"/>
@@ -18006,48 +18358,48 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I23" s="4"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I24" s="4"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I25" s="4"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="6"/>
@@ -18062,22 +18414,22 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I29" s="4"/>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="37"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="43"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -18100,42 +18452,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="35" t="s">
+      <c r="J33" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="37"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="43"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="37"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="43"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -18170,12 +18522,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="J17:M17"/>
@@ -18184,12 +18536,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="J21:K21"/>
@@ -18198,6 +18544,12 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18216,28 +18568,28 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H8" s="4"/>
@@ -18272,12 +18624,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
     </row>
@@ -18285,12 +18637,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
     </row>
@@ -18298,12 +18650,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
     </row>
@@ -18311,12 +18663,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="S14" s="5"/>
@@ -18327,12 +18679,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="S15" s="5"/>
@@ -18343,12 +18695,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="S16" s="5"/>
@@ -18357,12 +18709,12 @@
     </row>
     <row r="17" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
       <c r="P17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -18370,12 +18722,12 @@
     </row>
     <row r="18" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="37"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="43"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.15">
@@ -18399,15 +18751,15 @@
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H21" s="4"/>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.15">
@@ -18534,12 +18886,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="43" t="s">
+      <c r="K32" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56"/>
       <c r="O32" s="5"/>
       <c r="P32" s="6"/>
     </row>
@@ -18547,12 +18899,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="35" t="s">
+      <c r="K33" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="37"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="43"/>
       <c r="O33" s="5"/>
       <c r="P33" s="6"/>
     </row>
@@ -18584,12 +18936,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="5"/>
       <c r="P36" s="6"/>
     </row>
@@ -18597,12 +18949,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="58" t="s">
+      <c r="K37" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="L37" s="58"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
       <c r="O37" s="5"/>
       <c r="P37" s="6"/>
     </row>
@@ -18610,12 +18962,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="57" t="s">
+      <c r="K38" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
       <c r="O38" s="5"/>
       <c r="P38" s="6"/>
     </row>
@@ -18623,12 +18975,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="58" t="s">
+      <c r="K39" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="58"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
       <c r="O39" s="5"/>
       <c r="P39" s="6"/>
     </row>
@@ -18636,12 +18988,12 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="58"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
       <c r="O40" s="5"/>
       <c r="P40" s="6"/>
     </row>
@@ -18649,12 +19001,12 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="58" t="s">
+      <c r="K41" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="58"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
       <c r="O41" s="5"/>
       <c r="P41" s="6"/>
     </row>
@@ -18662,12 +19014,12 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="57" t="s">
+      <c r="K42" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
       <c r="O42" s="5"/>
       <c r="P42" s="6"/>
     </row>
@@ -18675,18 +19027,18 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="59" t="s">
+      <c r="K43" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="60"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="37"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="43"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H44" s="4"/>
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P44" s="6"/>
@@ -18704,30 +19056,24 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="I21:O21"/>
     <mergeCell ref="H6:P7"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="K11:N11"/>
@@ -18737,8 +19083,14 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18757,32 +19109,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -18868,7 +19220,7 @@
         <v>69</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="32" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="19"/>
@@ -18884,7 +19236,7 @@
     </row>
     <row r="15" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H15" s="4"/>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="30" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="5"/>
@@ -18912,17 +19264,17 @@
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="53"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.15">

--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -973,16 +973,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学生番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生パースワード</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
@@ -1080,6 +1070,16 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生番号(アカウント)</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1404,6 +1404,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,21 +1437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1469,6 +1460,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1512,6 +1518,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,36 +1566,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13822,32 +13822,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -13985,17 +13985,17 @@
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="74"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.15">
@@ -14341,30 +14341,30 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -14807,32 +14807,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G7" s="44"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G8" s="1"/>
@@ -14969,17 +14969,17 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" s="4"/>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.15">
@@ -15301,149 +15301,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="5" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="73"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="84"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="76"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="87"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="76"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="87"/>
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="79"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="90"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="67" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="R13" s="83" t="s">
+      <c r="H13" s="71"/>
+      <c r="R13" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="83"/>
-      <c r="T13" s="67" t="s">
+      <c r="S13" s="79"/>
+      <c r="T13" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="67"/>
+      <c r="U13" s="71"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="67" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="R14" s="83" t="s">
+      <c r="H14" s="71"/>
+      <c r="R14" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="83"/>
-      <c r="T14" s="67" t="s">
+      <c r="S14" s="79"/>
+      <c r="T14" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="U14" s="67"/>
+      <c r="U14" s="71"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="67" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="R15" s="83" t="s">
+      <c r="H15" s="71"/>
+      <c r="R15" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="83"/>
-      <c r="T15" s="67" t="s">
+      <c r="S15" s="79"/>
+      <c r="T15" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="U15" s="67"/>
+      <c r="U15" s="71"/>
     </row>
     <row r="17" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="81" t="s">
+      <c r="F17" s="76"/>
+      <c r="G17" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="33" t="s">
         <v>88</v>
       </c>
@@ -15456,18 +15456,18 @@
       <c r="L17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="81"/>
-      <c r="R17" s="86" t="s">
+      <c r="N17" s="78"/>
+      <c r="R17" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="S17" s="87"/>
-      <c r="T17" s="81" t="s">
+      <c r="S17" s="76"/>
+      <c r="T17" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="U17" s="81"/>
+      <c r="U17" s="78"/>
       <c r="V17" s="33" t="s">
         <v>88</v>
       </c>
@@ -15485,28 +15485,28 @@
       </c>
     </row>
     <row r="18" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E18" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="84" t="s">
+      <c r="E18" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="84"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="R18" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67" t="s">
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="R18" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="U18" s="67"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="U18" s="71"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
@@ -15514,57 +15514,57 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="67"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="71"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="R19" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84" t="s">
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="R19" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="U19" s="84"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="71"/>
+      <c r="G20" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="R20" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67" t="s">
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="R20" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="U20" s="67"/>
+      <c r="U20" s="71"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
@@ -15572,28 +15572,28 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67" t="s">
+      <c r="F21" s="71"/>
+      <c r="G21" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="R21" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67" t="s">
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="R21" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="U21" s="67"/>
+      <c r="U21" s="71"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -15601,30 +15601,30 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E22" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67" t="s">
+      <c r="E22" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="82" t="s">
+      <c r="M22" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="N22" s="82"/>
-      <c r="R22" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67" t="s">
+      <c r="N22" s="81"/>
+      <c r="R22" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="U22" s="67"/>
+      <c r="U22" s="71"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
@@ -15632,28 +15632,28 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E23" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67" t="s">
+      <c r="E23" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="67"/>
+      <c r="H23" s="71"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="R23" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67" t="s">
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="R23" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="U23" s="67"/>
+      <c r="U23" s="71"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
@@ -15661,68 +15661,68 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="27" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="67" t="s">
+      <c r="F27" s="79"/>
+      <c r="G27" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="67"/>
-      <c r="R27" s="83" t="s">
+      <c r="H27" s="71"/>
+      <c r="R27" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="83"/>
-      <c r="T27" s="67" t="s">
+      <c r="S27" s="79"/>
+      <c r="T27" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="U27" s="67"/>
+      <c r="U27" s="71"/>
     </row>
     <row r="28" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="83"/>
-      <c r="G28" s="67" t="s">
+      <c r="F28" s="79"/>
+      <c r="G28" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="R28" s="83" t="s">
+      <c r="H28" s="71"/>
+      <c r="R28" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="S28" s="83"/>
-      <c r="T28" s="67" t="s">
+      <c r="S28" s="79"/>
+      <c r="T28" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="U28" s="67"/>
+      <c r="U28" s="71"/>
     </row>
     <row r="29" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="67" t="s">
+      <c r="F29" s="79"/>
+      <c r="G29" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="R29" s="83" t="s">
+      <c r="H29" s="71"/>
+      <c r="R29" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="83"/>
-      <c r="T29" s="67" t="s">
+      <c r="S29" s="79"/>
+      <c r="T29" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="U29" s="67"/>
+      <c r="U29" s="71"/>
     </row>
     <row r="31" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="83" t="s">
+      <c r="F31" s="76"/>
+      <c r="G31" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="83"/>
+      <c r="H31" s="79"/>
       <c r="I31" s="34" t="s">
         <v>88</v>
       </c>
@@ -15738,14 +15738,14 @@
       <c r="M31" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="R31" s="86" t="s">
+      <c r="R31" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="S31" s="87"/>
-      <c r="T31" s="83" t="s">
+      <c r="S31" s="76"/>
+      <c r="T31" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="U31" s="83"/>
+      <c r="U31" s="79"/>
       <c r="V31" s="34" t="s">
         <v>88</v>
       </c>
@@ -15763,25 +15763,25 @@
       </c>
     </row>
     <row r="32" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="84" t="s">
+      <c r="F32" s="71"/>
+      <c r="G32" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="84"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="84" t="s">
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="U32" s="84"/>
+      <c r="U32" s="77"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
@@ -15789,27 +15789,27 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67" t="s">
+      <c r="F33" s="71"/>
+      <c r="G33" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="67"/>
+      <c r="H33" s="71"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="R33" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67" t="s">
+      <c r="R33" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="U33" s="67"/>
+      <c r="U33" s="71"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
@@ -15817,27 +15817,27 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67" t="s">
+      <c r="F34" s="71"/>
+      <c r="G34" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="67"/>
+      <c r="H34" s="71"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="29"/>
-      <c r="R34" s="67" t="s">
+      <c r="R34" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67" t="s">
+      <c r="S34" s="71"/>
+      <c r="T34" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="U34" s="67"/>
+      <c r="U34" s="71"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
@@ -15845,27 +15845,27 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67" t="s">
+      <c r="F35" s="71"/>
+      <c r="G35" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="67"/>
+      <c r="H35" s="71"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="R35" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67" t="s">
+      <c r="R35" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="U35" s="67"/>
+      <c r="U35" s="71"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
@@ -15873,27 +15873,27 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67" t="s">
+      <c r="F36" s="71"/>
+      <c r="G36" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="67"/>
+      <c r="H36" s="71"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="29"/>
-      <c r="R36" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67" t="s">
+      <c r="R36" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="U36" s="67"/>
+      <c r="U36" s="71"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
@@ -15901,27 +15901,27 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67" t="s">
+      <c r="F37" s="71"/>
+      <c r="G37" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="67"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="29"/>
-      <c r="R37" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67" t="s">
+      <c r="R37" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="U37" s="67"/>
+      <c r="U37" s="71"/>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
@@ -15929,38 +15929,38 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
+      <c r="F38" s="71"/>
+      <c r="G38" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="H38" s="67"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="29"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
     </row>
     <row r="39" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="67"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="88"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
+      <c r="M39" s="35"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
     </row>
     <row r="68" spans="7:13" x14ac:dyDescent="0.15">
       <c r="G68" s="80"/>
@@ -15973,11 +15973,67 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G5:V8"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="R19:S19"/>
@@ -15992,34 +16048,13 @@
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="R28:S28"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
@@ -16031,41 +16066,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G5:V8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16084,52 +16084,52 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
-      <c r="K8" s="61" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="47"/>
+      <c r="K8" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="62"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="21"/>
       <c r="N8" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="47"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
       <c r="V9" s="18" t="s">
         <v>5</v>
       </c>
@@ -16144,22 +16144,22 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="47"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="43"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="47"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -16174,20 +16174,20 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="I11" s="62"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="Q11" s="47" t="s">
+      <c r="Q11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="43"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="47"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -16196,18 +16196,18 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="Q12" s="47" t="s">
+      <c r="Q12" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="43"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="47"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -16216,16 +16216,16 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="Q13" s="16" t="s">
@@ -16252,8 +16252,8 @@
       <c r="E14" s="21"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="V14" s="12"/>
@@ -16270,16 +16270,16 @@
       <c r="E15" s="22"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="52"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -16290,12 +16290,12 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
+      <c r="I16" s="62"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="Q16" s="18" t="s">
@@ -16320,8 +16320,8 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -16384,10 +16384,10 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="58"/>
+      <c r="I21" s="62"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -16402,8 +16402,8 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -16440,12 +16440,12 @@
       <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
@@ -16463,9 +16463,9 @@
       <c r="B25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -16490,12 +16490,12 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="Q26" s="54" t="s">
+      <c r="Q26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="56"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="55"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -16510,24 +16510,24 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="Q27" s="41" t="s">
+      <c r="Q27" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="43"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="43"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="47"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="18" t="s">
         <v>48</v>
       </c>
@@ -16556,12 +16556,12 @@
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="47"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -16576,12 +16576,12 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -16590,20 +16590,20 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="Q30" s="51" t="s">
+      <c r="Q30" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="53"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="52"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="47"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -16612,12 +16612,12 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="Q31" s="41" t="s">
+      <c r="Q31" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="42"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="43"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="47"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
@@ -16630,24 +16630,24 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="Q32" s="41" t="s">
+      <c r="Q32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="43"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="50"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="49"/>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="Q33" s="41" t="s">
+      <c r="Q33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="42"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="43"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="47"/>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G34" s="12"/>
@@ -16703,44 +16703,44 @@
       <c r="U46" s="12"/>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="50"/>
-      <c r="H47" s="35" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="37"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="41"/>
       <c r="U47" s="12"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="40"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="44"/>
       <c r="U48" s="12"/>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -16750,12 +16750,12 @@
       <c r="U49" s="12"/>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
       <c r="H50" s="4"/>
       <c r="I50" s="16" t="s">
         <v>38</v>
@@ -16766,12 +16766,12 @@
       <c r="M50" s="23"/>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
       <c r="H51" s="4"/>
       <c r="M51" s="6"/>
     </row>
@@ -16780,21 +16780,21 @@
         <v>19</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="51" t="s">
+      <c r="I52" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="53"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="52"/>
       <c r="M52" s="6"/>
-      <c r="R52" s="35" t="s">
+      <c r="R52" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="37"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="41"/>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H53" s="4"/>
@@ -16811,12 +16811,12 @@
         <v>52</v>
       </c>
       <c r="M53" s="6"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="40"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="44"/>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H54" s="4"/>
@@ -16866,12 +16866,12 @@
       <c r="L57" s="12"/>
       <c r="M57" s="6"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="51" t="s">
+      <c r="S57" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="53"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="52"/>
       <c r="W57" s="6"/>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.15">
@@ -17162,54 +17162,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="H47:M48"/>
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="R52:W53"/>
@@ -17224,6 +17176,54 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17275,26 +17275,26 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -17312,9 +17312,9 @@
       <c r="J9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="31"/>
       <c r="O9" s="6"/>
     </row>
@@ -17324,9 +17324,9 @@
       <c r="J10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
@@ -17666,22 +17666,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="44"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17704,42 +17704,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="43"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="43"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -17758,12 +17758,12 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -17854,12 +17854,12 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
@@ -17867,9 +17867,9 @@
       <c r="J29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="43"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -17892,42 +17892,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="43"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="43"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="47"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -17962,6 +17962,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J11:M11"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -17973,13 +17980,6 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17998,22 +17998,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="44"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -18037,16 +18037,16 @@
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="58"/>
+      <c r="L11" s="62"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
@@ -18064,16 +18064,16 @@
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
       <c r="E16" s="24"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="62"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -18098,16 +18098,16 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="58"/>
+      <c r="L21" s="62"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
@@ -18130,16 +18130,16 @@
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="58"/>
+      <c r="L26" s="62"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I27" s="4"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
@@ -18223,22 +18223,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="44"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -18264,42 +18264,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="43"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="43"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -18318,20 +18318,20 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="66"/>
       <c r="L18" s="21"/>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -18340,16 +18340,16 @@
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="6"/>
@@ -18358,48 +18358,48 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I23" s="4"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I24" s="4"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I25" s="4"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="6"/>
@@ -18414,22 +18414,22 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I29" s="4"/>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="43"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -18452,42 +18452,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="43"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="43"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="47"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -18522,12 +18522,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="J17:M17"/>
@@ -18544,12 +18544,12 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18568,28 +18568,28 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H8" s="4"/>
@@ -18624,12 +18624,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="51" t="s">
+      <c r="K11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
     </row>
@@ -18637,12 +18637,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
     </row>
@@ -18650,12 +18650,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
     </row>
@@ -18663,12 +18663,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="S14" s="5"/>
@@ -18679,12 +18679,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="S15" s="5"/>
@@ -18695,12 +18695,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="S16" s="5"/>
@@ -18709,12 +18709,12 @@
     </row>
     <row r="17" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="K17" s="67" t="s">
+      <c r="K17" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
       <c r="P17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -18722,12 +18722,12 @@
     </row>
     <row r="18" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="65"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="43"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="47"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.15">
@@ -18751,15 +18751,15 @@
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H21" s="4"/>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.15">
@@ -18886,12 +18886,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="54" t="s">
+      <c r="K32" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="55"/>
       <c r="O32" s="5"/>
       <c r="P32" s="6"/>
     </row>
@@ -18899,12 +18899,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="43"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="47"/>
       <c r="O33" s="5"/>
       <c r="P33" s="6"/>
     </row>
@@ -18936,12 +18936,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="5"/>
       <c r="P36" s="6"/>
     </row>
@@ -18949,12 +18949,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="66" t="s">
+      <c r="K37" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="L37" s="66"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
       <c r="O37" s="5"/>
       <c r="P37" s="6"/>
     </row>
@@ -18962,12 +18962,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
       <c r="O38" s="5"/>
       <c r="P38" s="6"/>
     </row>
@@ -18975,12 +18975,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="66" t="s">
+      <c r="K39" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="5"/>
       <c r="P39" s="6"/>
     </row>
@@ -18988,12 +18988,12 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="66"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="5"/>
       <c r="P40" s="6"/>
     </row>
@@ -19001,12 +19001,12 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="66" t="s">
+      <c r="K41" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="66"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
       <c r="O41" s="5"/>
       <c r="P41" s="6"/>
     </row>
@@ -19014,12 +19014,12 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="67" t="s">
+      <c r="K42" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
       <c r="O42" s="5"/>
       <c r="P42" s="6"/>
     </row>
@@ -19027,12 +19027,12 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="64" t="s">
+      <c r="K43" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="65"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="43"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="47"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
     </row>
@@ -19056,19 +19056,14 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="H6:P7"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -19083,14 +19078,19 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="I21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19109,32 +19109,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -19264,17 +19264,17 @@
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.15">

--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="167">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -765,47 +765,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id_student</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time_register_student</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>time_register_manager</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id_book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id_book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pressmark</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_author</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>publisher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>time_publish</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -820,10 +784,6 @@
   </si>
   <si>
     <t>history_loan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_loanedbook</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -858,14 +818,6 @@
     <rPh sb="7" eb="8">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>remainder</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -940,19 +892,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出版時間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>総計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残り数</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -969,16 +909,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>エイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1080,6 +1010,127 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生番号(アカウント)</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pressmark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>releaseDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版日</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title_loaned</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1334,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1386,9 +1437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,12 +1446,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,21 +1501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1469,6 +1524,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1512,6 +1582,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,36 +1630,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13822,32 +13892,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -13929,7 +13999,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="19"/>
@@ -13945,7 +14015,7 @@
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="5"/>
@@ -13985,17 +14055,17 @@
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.15">
@@ -14341,30 +14411,30 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -14446,7 +14516,7 @@
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="19"/>
@@ -14807,32 +14877,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G7" s="44"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G8" s="1"/>
@@ -14913,7 +14983,7 @@
         <v>69</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="19"/>
@@ -14929,7 +14999,7 @@
     </row>
     <row r="14" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G14" s="4"/>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="5"/>
@@ -14969,17 +15039,17 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" s="4"/>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.15">
@@ -15299,672 +15369,1191 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:Z68"/>
+  <dimension ref="E5:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34:U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="5" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="73"/>
+      <c r="G5" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="87"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="76"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="90"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="76"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="90"/>
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="79"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="67" t="s">
+      <c r="F13" s="82"/>
+      <c r="G13" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="R13" s="83" t="s">
+      <c r="H13" s="74"/>
+      <c r="R13" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="83"/>
-      <c r="T13" s="67" t="s">
+      <c r="S13" s="82"/>
+      <c r="T13" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="67"/>
+      <c r="U13" s="74"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="67" t="s">
+      <c r="F14" s="82"/>
+      <c r="G14" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="R14" s="83" t="s">
+      <c r="H14" s="74"/>
+      <c r="R14" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="83"/>
-      <c r="T14" s="67" t="s">
+      <c r="S14" s="82"/>
+      <c r="T14" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="U14" s="67"/>
+      <c r="U14" s="74"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="67" t="s">
+      <c r="F15" s="82"/>
+      <c r="G15" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="R15" s="83" t="s">
+      <c r="H15" s="74"/>
+      <c r="R15" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="83"/>
-      <c r="T15" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="U15" s="67"/>
-    </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E17" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="87"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15" s="74"/>
+    </row>
+    <row r="17" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E17" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="79"/>
       <c r="G17" s="81" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H17" s="81"/>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="37" t="s">
         <v>91</v>
       </c>
       <c r="M17" s="81" t="s">
         <v>92</v>
       </c>
       <c r="N17" s="81"/>
-      <c r="R17" s="86" t="s">
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="S17" s="79"/>
+      <c r="T17" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" s="81"/>
+      <c r="V17" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="W17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y17" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA17" s="96"/>
+    </row>
+    <row r="18" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E18" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="34">
+        <v>4</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="U18" s="74"/>
+      <c r="V18" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="W18" s="34">
+        <v>8</v>
+      </c>
+      <c r="X18" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="96"/>
+    </row>
+    <row r="19" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E19" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="74"/>
+      <c r="I19" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="34">
+        <v>32</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" s="80"/>
+      <c r="V19" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="W19" s="39">
+        <v>16</v>
+      </c>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="96"/>
+    </row>
+    <row r="20" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E20" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="74"/>
+      <c r="I20" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="34">
+        <v>32</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" s="74"/>
+      <c r="V20" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="W20" s="34">
+        <v>32</v>
+      </c>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="96"/>
+    </row>
+    <row r="21" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E21" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="34">
         <v>128</v>
       </c>
-      <c r="S17" s="87"/>
-      <c r="T17" s="81" t="s">
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="74"/>
+      <c r="V21" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="W21" s="34">
+        <v>128</v>
+      </c>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="96"/>
+    </row>
+    <row r="22" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E22" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="34">
+        <v>1</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="84"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" s="74"/>
+      <c r="V22" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="W22" s="34">
+        <v>64</v>
+      </c>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="96"/>
+    </row>
+    <row r="23" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E23" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="74"/>
+      <c r="I23" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="U23" s="74"/>
+      <c r="V23" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="96"/>
+    </row>
+    <row r="24" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+    </row>
+    <row r="25" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+    </row>
+    <row r="26" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+    </row>
+    <row r="27" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E27" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="74"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="S27" s="82"/>
+      <c r="T27" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="U27" s="74"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+    </row>
+    <row r="28" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E28" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="82"/>
+      <c r="G28" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="74"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="S28" s="82"/>
+      <c r="T28" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="U28" s="74"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+    </row>
+    <row r="29" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E29" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="S29" s="82"/>
+      <c r="T29" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="U29" s="74"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+    </row>
+    <row r="30" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+    </row>
+    <row r="31" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E31" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="79"/>
+      <c r="G31" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="82"/>
+      <c r="I31" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="S31" s="79"/>
+      <c r="T31" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="U31" s="82"/>
+      <c r="V31" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="W31" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y31" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z31" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA31" s="96"/>
+    </row>
+    <row r="32" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E32" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="U17" s="81"/>
-      <c r="V17" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="W17" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="X17" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y17" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z17" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E18" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="R18" s="67" t="s">
+      <c r="F32" s="74"/>
+      <c r="G32" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="80"/>
+      <c r="I32" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="34">
+        <v>10</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="M32" s="33"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="S32" s="74"/>
+      <c r="T32" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="U32" s="80"/>
+      <c r="V32" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="W32" s="34">
+        <v>10</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y32" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="96"/>
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E33" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="74"/>
+      <c r="G33" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="80"/>
+      <c r="I33" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="34">
+        <v>30</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="U33" s="74"/>
+      <c r="V33" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="W33" s="34">
+        <v>32</v>
+      </c>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="96"/>
+    </row>
+    <row r="34" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E34" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="74"/>
+      <c r="I34" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="34">
+        <v>64</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="U34" s="74"/>
+      <c r="V34" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="W34" s="34">
+        <v>64</v>
+      </c>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="96"/>
+    </row>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E35" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="74"/>
+      <c r="I35" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="34">
+        <v>10</v>
+      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="U35" s="74"/>
+      <c r="V35" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="96"/>
+    </row>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E36" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="74"/>
+      <c r="I36" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" s="34">
+        <v>32</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="U36" s="74"/>
+      <c r="V36" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="96"/>
+    </row>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E37" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="74"/>
+      <c r="I37" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="34">
+        <v>32</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="U37" s="74"/>
+      <c r="V37" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67" t="s">
+      <c r="W37" s="34">
+        <v>1</v>
+      </c>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="96"/>
+    </row>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E38" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="74"/>
+      <c r="I38" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="96"/>
+      <c r="X38" s="96"/>
+      <c r="Y38" s="96"/>
+      <c r="Z38" s="96"/>
+      <c r="AA38" s="96"/>
+    </row>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E39" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="74"/>
+      <c r="I39" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="34">
+        <v>4</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="96"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="96"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="96"/>
+    </row>
+    <row r="40" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E40" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="74"/>
+      <c r="I40" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J40" s="34">
+        <v>4</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="96"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="96"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="96"/>
+      <c r="V40" s="96"/>
+      <c r="W40" s="96"/>
+      <c r="X40" s="96"/>
+      <c r="Y40" s="96"/>
+      <c r="Z40" s="96"/>
+      <c r="AA40" s="96"/>
+    </row>
+    <row r="41" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E41" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="74"/>
+      <c r="G41" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="U18" s="67"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-    </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E19" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="R19" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="U19" s="84"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-    </row>
-    <row r="20" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E20" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="R20" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" s="67"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E21" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="R21" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21" s="67"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-    </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E22" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="82"/>
-      <c r="R22" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="U22" s="67"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-    </row>
-    <row r="23" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E23" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="R23" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="U23" s="67"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-    </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E27" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="67"/>
-      <c r="R27" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="S27" s="83"/>
-      <c r="T27" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="U27" s="67"/>
-    </row>
-    <row r="28" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E28" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="83"/>
-      <c r="G28" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="67"/>
-      <c r="R28" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="S28" s="83"/>
-      <c r="T28" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="U28" s="67"/>
-    </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E29" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="67"/>
-      <c r="R29" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="S29" s="83"/>
-      <c r="T29" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="U29" s="67"/>
-    </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E31" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="R31" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="S31" s="87"/>
-      <c r="T31" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="U31" s="83"/>
-      <c r="V31" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="W31" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="X31" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y31" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z31" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E32" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="U32" s="84"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-    </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E33" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="67"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="R33" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="U33" s="67"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-    </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E34" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="29"/>
-      <c r="R34" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="U34" s="67"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-    </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E35" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="67"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="R35" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="U35" s="67"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-    </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E36" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="67"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="29"/>
-      <c r="R36" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="U36" s="67"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-    </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E37" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="67"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="29"/>
-      <c r="R37" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="U37" s="67"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-    </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E38" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="67"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="29"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-    </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.15">
-      <c r="E39" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="67"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="88"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
+      <c r="J41" s="34">
+        <v>16</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="96"/>
+    </row>
+    <row r="42" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="96"/>
+      <c r="AA42" s="96"/>
+    </row>
+    <row r="43" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+    </row>
+    <row r="44" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="35"/>
+    </row>
+    <row r="45" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="95"/>
+    </row>
+    <row r="46" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="95"/>
+    </row>
+    <row r="47" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="95"/>
+    </row>
+    <row r="48" spans="5:27" x14ac:dyDescent="0.15">
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="14"/>
     </row>
     <row r="68" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -15972,12 +16561,72 @@
       <c r="M68" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="E38:F38"/>
+  <mergeCells count="97">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G5:V8"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="R19:S19"/>
@@ -15992,34 +16641,13 @@
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="R28:S28"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
@@ -16031,41 +16659,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G5:V8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16084,52 +16677,52 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
-      <c r="K8" s="61" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="K8" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="62"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="21"/>
       <c r="N8" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="50"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="55"/>
       <c r="V9" s="18" t="s">
         <v>5</v>
       </c>
@@ -16144,22 +16737,22 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="50"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="43"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="50"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -16174,20 +16767,20 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="I11" s="65"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="Q11" s="47" t="s">
+      <c r="Q11" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="43"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="50"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -16196,18 +16789,18 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="Q12" s="47" t="s">
+      <c r="Q12" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="43"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="50"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -16216,16 +16809,16 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="Q13" s="16" t="s">
@@ -16252,8 +16845,8 @@
       <c r="E14" s="21"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="V14" s="12"/>
@@ -16270,16 +16863,16 @@
       <c r="E15" s="22"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="55"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -16290,12 +16883,12 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
+      <c r="I16" s="65"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="Q16" s="18" t="s">
@@ -16320,8 +16913,8 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -16384,10 +16977,10 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="58"/>
+      <c r="I21" s="65"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -16402,8 +16995,8 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -16440,12 +17033,12 @@
       <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
@@ -16463,9 +17056,9 @@
       <c r="B25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -16490,12 +17083,12 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="Q26" s="54" t="s">
+      <c r="Q26" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="56"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="58"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -16510,24 +17103,24 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="Q27" s="41" t="s">
+      <c r="Q27" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="43"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="43"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="50"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
       <c r="G28" s="18" t="s">
         <v>48</v>
       </c>
@@ -16556,12 +17149,12 @@
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="43"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="50"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -16576,12 +17169,12 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -16590,20 +17183,20 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="Q30" s="51" t="s">
+      <c r="Q30" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="53"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="55"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="50"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -16612,12 +17205,12 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="Q31" s="41" t="s">
+      <c r="Q31" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="42"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="43"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="50"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
@@ -16630,24 +17223,24 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="Q32" s="41" t="s">
+      <c r="Q32" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="43"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="52"/>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="Q33" s="41" t="s">
+      <c r="Q33" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="42"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="43"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="50"/>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G34" s="12"/>
@@ -16703,44 +17296,44 @@
       <c r="U46" s="12"/>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="50"/>
-      <c r="H47" s="35" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="52"/>
+      <c r="H47" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="37"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="44"/>
       <c r="U47" s="12"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="40"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
       <c r="U48" s="12"/>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -16750,12 +17343,12 @@
       <c r="U49" s="12"/>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
       <c r="H50" s="4"/>
       <c r="I50" s="16" t="s">
         <v>38</v>
@@ -16766,35 +17359,35 @@
       <c r="M50" s="23"/>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
       <c r="H51" s="4"/>
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="29" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="51" t="s">
+      <c r="I52" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="53"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
       <c r="M52" s="6"/>
-      <c r="R52" s="35" t="s">
+      <c r="R52" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="37"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="44"/>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H53" s="4"/>
@@ -16811,12 +17404,12 @@
         <v>52</v>
       </c>
       <c r="M53" s="6"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="40"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="47"/>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H54" s="4"/>
@@ -16866,12 +17459,12 @@
       <c r="L57" s="12"/>
       <c r="M57" s="6"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="51" t="s">
+      <c r="S57" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="53"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="55"/>
       <c r="W57" s="6"/>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.15">
@@ -17162,54 +17755,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="H47:M48"/>
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="R52:W53"/>
@@ -17224,6 +17769,54 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17275,26 +17868,26 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -17312,10 +17905,10 @@
       <c r="J9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="31"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.15">
@@ -17324,9 +17917,9 @@
       <c r="J10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
@@ -17369,7 +17962,7 @@
     </row>
     <row r="14" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H14" s="4"/>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="19"/>
@@ -17666,22 +18259,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="44"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -17704,42 +18297,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="43"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="50"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="43"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -17758,12 +18351,12 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -17854,12 +18447,12 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
@@ -17867,9 +18460,9 @@
       <c r="J29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="43"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -17892,42 +18485,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="43"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="43"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="50"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -17962,6 +18555,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J11:M11"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -17973,13 +18573,6 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17998,22 +18591,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="44"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -18037,16 +18630,16 @@
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="58"/>
+      <c r="L11" s="65"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
@@ -18064,16 +18657,16 @@
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
       <c r="E16" s="24"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="65"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -18098,16 +18691,16 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="58"/>
+      <c r="L21" s="65"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
@@ -18130,16 +18723,16 @@
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="58"/>
+      <c r="L26" s="65"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I27" s="4"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
@@ -18223,22 +18816,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="44"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -18264,42 +18857,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="43"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="50"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="43"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -18318,20 +18911,20 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="21"/>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -18340,16 +18933,16 @@
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="6"/>
@@ -18358,48 +18951,48 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I23" s="4"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I24" s="4"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I25" s="4"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="6"/>
@@ -18414,22 +19007,22 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I29" s="4"/>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="43"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -18452,42 +19045,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="43"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="43"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="50"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -18522,12 +19115,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="J17:M17"/>
@@ -18544,12 +19137,12 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18568,28 +19161,28 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H8" s="4"/>
@@ -18624,12 +19217,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="51" t="s">
+      <c r="K11" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
     </row>
@@ -18637,12 +19230,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
     </row>
@@ -18650,12 +19243,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
     </row>
@@ -18663,12 +19256,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="S14" s="5"/>
@@ -18679,12 +19272,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="S15" s="5"/>
@@ -18695,12 +19288,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="S16" s="5"/>
@@ -18709,12 +19302,12 @@
     </row>
     <row r="17" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="K17" s="67" t="s">
+      <c r="K17" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="P17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -18722,12 +19315,12 @@
     </row>
     <row r="18" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="65"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="43"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="50"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.15">
@@ -18751,15 +19344,15 @@
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H21" s="4"/>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.15">
@@ -18886,12 +19479,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="54" t="s">
+      <c r="K32" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="58"/>
       <c r="O32" s="5"/>
       <c r="P32" s="6"/>
     </row>
@@ -18899,12 +19492,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="43"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="50"/>
       <c r="O33" s="5"/>
       <c r="P33" s="6"/>
     </row>
@@ -18936,12 +19529,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
       <c r="O36" s="5"/>
       <c r="P36" s="6"/>
     </row>
@@ -18949,12 +19542,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="66" t="s">
+      <c r="K37" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="L37" s="66"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
       <c r="O37" s="5"/>
       <c r="P37" s="6"/>
     </row>
@@ -18962,12 +19555,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
       <c r="O38" s="5"/>
       <c r="P38" s="6"/>
     </row>
@@ -18975,12 +19568,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="66" t="s">
+      <c r="K39" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
       <c r="O39" s="5"/>
       <c r="P39" s="6"/>
     </row>
@@ -18988,12 +19581,12 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="66"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
       <c r="O40" s="5"/>
       <c r="P40" s="6"/>
     </row>
@@ -19001,12 +19594,12 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="66" t="s">
+      <c r="K41" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="66"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
       <c r="O41" s="5"/>
       <c r="P41" s="6"/>
     </row>
@@ -19014,12 +19607,12 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="67" t="s">
+      <c r="K42" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
       <c r="O42" s="5"/>
       <c r="P42" s="6"/>
     </row>
@@ -19027,18 +19620,18 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="64" t="s">
+      <c r="K43" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="65"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="43"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="50"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H44" s="4"/>
-      <c r="K44" s="30" t="s">
+      <c r="K44" s="29" t="s">
         <v>19</v>
       </c>
       <c r="P44" s="6"/>
@@ -19056,19 +19649,14 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="H6:P7"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -19083,14 +19671,19 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="I21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19109,32 +19702,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="44"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -19220,7 +19813,7 @@
         <v>69</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="31" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="19"/>
@@ -19236,7 +19829,7 @@
     </row>
     <row r="15" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H15" s="4"/>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="5"/>
@@ -19264,17 +19857,17 @@
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.15">

--- a/LibraryManage.xlsx
+++ b/LibraryManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="597" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" tabRatio="717" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="フロー " sheetId="4" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="画面設計(9)" sheetId="14" r:id="rId12"/>
     <sheet name="テーブル" sheetId="15" r:id="rId13"/>
     <sheet name="ゴミ箱" sheetId="6" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="180">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1133,12 +1134,141 @@
     <t>title_loaned</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本を100冊登録する機能を追加する</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガントチャートを作る</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの借りる機能を追加する</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬休み</t>
+    <rPh sb="0" eb="2">
+      <t>フユヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終発表</t>
+  </si>
+  <si>
+    <t>冬休み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却機能を追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸出履歴一覧機能を追加する</t>
+    <rPh sb="0" eb="2">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面デザイン整理して、発表準備</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移時のアニメを追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,8 +1308,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,8 +1362,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1381,11 +1545,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1474,6 +1651,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1501,30 +1690,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,6 +1704,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,27 +1771,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,14 +1798,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13892,32 +14105,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="4:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="59"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="47"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -14055,17 +14268,17 @@
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.15">
@@ -14411,30 +14624,30 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="5:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="59"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -14877,32 +15090,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="7:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G7" s="59"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G8" s="1"/>
@@ -15039,17 +15252,17 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" s="4"/>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="55"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.15">
@@ -15371,149 +15584,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="T34" sqref="T34:U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="5" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="87"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="84"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="90"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="87"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G7" s="88"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="90"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="87"/>
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="93"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="90"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="74" t="s">
+      <c r="F13" s="94"/>
+      <c r="G13" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="R13" s="82" t="s">
+      <c r="H13" s="78"/>
+      <c r="R13" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="82"/>
-      <c r="T13" s="74" t="s">
+      <c r="S13" s="94"/>
+      <c r="T13" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="74"/>
+      <c r="U13" s="78"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="74" t="s">
+      <c r="F14" s="94"/>
+      <c r="G14" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="R14" s="82" t="s">
+      <c r="H14" s="78"/>
+      <c r="R14" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="82"/>
-      <c r="T14" s="74" t="s">
+      <c r="S14" s="94"/>
+      <c r="T14" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="U14" s="74"/>
+      <c r="U14" s="78"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.15">
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="74" t="s">
+      <c r="F15" s="94"/>
+      <c r="G15" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="R15" s="82" t="s">
+      <c r="H15" s="78"/>
+      <c r="R15" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="82"/>
-      <c r="T15" s="74" t="s">
+      <c r="S15" s="94"/>
+      <c r="T15" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="U15" s="74"/>
+      <c r="U15" s="78"/>
     </row>
     <row r="17" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="81" t="s">
+      <c r="F17" s="97"/>
+      <c r="G17" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="37" t="s">
         <v>88</v>
       </c>
@@ -15526,21 +15739,21 @@
       <c r="L17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="81"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="78" t="s">
+      <c r="N17" s="92"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="79"/>
-      <c r="T17" s="81" t="s">
+      <c r="S17" s="97"/>
+      <c r="T17" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="81"/>
+      <c r="U17" s="92"/>
       <c r="V17" s="37" t="s">
         <v>88</v>
       </c>
@@ -15556,17 +15769,17 @@
       <c r="Z17" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AA17" s="96"/>
+      <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="80" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="80"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="34" t="s">
         <v>149</v>
       </c>
@@ -15579,19 +15792,19 @@
       <c r="L18" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="74" t="s">
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74" t="s">
+      <c r="S18" s="78"/>
+      <c r="T18" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="U18" s="74"/>
+      <c r="U18" s="78"/>
       <c r="V18" s="34" t="s">
         <v>149</v>
       </c>
@@ -15605,17 +15818,17 @@
         <v>150</v>
       </c>
       <c r="Z18" s="34"/>
-      <c r="AA18" s="96"/>
+      <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="74"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="34" t="s">
         <v>151</v>
       </c>
@@ -15624,19 +15837,19 @@
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="80" t="s">
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80" t="s">
+      <c r="S19" s="95"/>
+      <c r="T19" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="U19" s="80"/>
+      <c r="U19" s="95"/>
       <c r="V19" s="39" t="s">
         <v>155</v>
       </c>
@@ -15646,17 +15859,17 @@
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
       <c r="Z19" s="39"/>
-      <c r="AA19" s="96"/>
+      <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74" t="s">
+      <c r="F20" s="78"/>
+      <c r="G20" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="74"/>
+      <c r="H20" s="78"/>
       <c r="I20" s="34" t="s">
         <v>153</v>
       </c>
@@ -15665,19 +15878,19 @@
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="74" t="s">
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74" t="s">
+      <c r="S20" s="78"/>
+      <c r="T20" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="U20" s="74"/>
+      <c r="U20" s="78"/>
       <c r="V20" s="34" t="s">
         <v>153</v>
       </c>
@@ -15687,17 +15900,17 @@
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
-      <c r="AA20" s="96"/>
+      <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74" t="s">
+      <c r="F21" s="78"/>
+      <c r="G21" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="34" t="s">
         <v>153</v>
       </c>
@@ -15706,19 +15919,19 @@
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="74" t="s">
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74" t="s">
+      <c r="S21" s="78"/>
+      <c r="T21" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="U21" s="74"/>
+      <c r="U21" s="78"/>
       <c r="V21" s="34" t="s">
         <v>153</v>
       </c>
@@ -15728,17 +15941,17 @@
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
-      <c r="AA21" s="96"/>
+      <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74" t="s">
+      <c r="F22" s="78"/>
+      <c r="G22" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="74"/>
+      <c r="H22" s="78"/>
       <c r="I22" s="34" t="s">
         <v>154</v>
       </c>
@@ -15747,21 +15960,21 @@
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="84" t="s">
+      <c r="M22" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="N22" s="84"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="74" t="s">
+      <c r="N22" s="93"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74" t="s">
+      <c r="S22" s="78"/>
+      <c r="T22" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="U22" s="74"/>
+      <c r="U22" s="78"/>
       <c r="V22" s="34" t="s">
         <v>153</v>
       </c>
@@ -15771,17 +15984,17 @@
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
-      <c r="AA22" s="96"/>
+      <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74" t="s">
+      <c r="F23" s="78"/>
+      <c r="G23" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="74"/>
+      <c r="H23" s="78"/>
       <c r="I23" s="34" t="s">
         <v>158</v>
       </c>
@@ -15790,19 +16003,19 @@
         <v>156</v>
       </c>
       <c r="L23" s="34"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="74" t="s">
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74" t="s">
+      <c r="S23" s="78"/>
+      <c r="T23" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="U23" s="74"/>
+      <c r="U23" s="78"/>
       <c r="V23" s="34" t="s">
         <v>158</v>
       </c>
@@ -15812,216 +16025,216 @@
       </c>
       <c r="Y23" s="34"/>
       <c r="Z23" s="34"/>
-      <c r="AA23" s="96"/>
+      <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="74" t="s">
+      <c r="F27" s="94"/>
+      <c r="G27" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="82" t="s">
+      <c r="H27" s="78"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="82"/>
-      <c r="T27" s="74" t="s">
+      <c r="S27" s="94"/>
+      <c r="T27" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="U27" s="74"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="74" t="s">
+      <c r="F28" s="94"/>
+      <c r="G28" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="82" t="s">
+      <c r="H28" s="78"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="S28" s="82"/>
-      <c r="T28" s="74" t="s">
+      <c r="S28" s="94"/>
+      <c r="T28" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="U28" s="74"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="74" t="s">
+      <c r="F29" s="94"/>
+      <c r="G29" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="82" t="s">
+      <c r="H29" s="78"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="82"/>
-      <c r="T29" s="74" t="s">
+      <c r="S29" s="94"/>
+      <c r="T29" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="U29" s="74"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="82" t="s">
+      <c r="F31" s="97"/>
+      <c r="G31" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="82"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="38" t="s">
         <v>88</v>
       </c>
@@ -16037,18 +16250,18 @@
       <c r="M31" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="78" t="s">
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="S31" s="79"/>
-      <c r="T31" s="82" t="s">
+      <c r="S31" s="97"/>
+      <c r="T31" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="U31" s="82"/>
+      <c r="U31" s="94"/>
       <c r="V31" s="38" t="s">
         <v>88</v>
       </c>
@@ -16064,17 +16277,17 @@
       <c r="Z31" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="AA31" s="96"/>
+      <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="80" t="s">
+      <c r="F32" s="78"/>
+      <c r="G32" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="80"/>
+      <c r="H32" s="95"/>
       <c r="I32" s="34" t="s">
         <v>149</v>
       </c>
@@ -16088,18 +16301,18 @@
         <v>157</v>
       </c>
       <c r="M32" s="33"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="74" t="s">
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="S32" s="74"/>
-      <c r="T32" s="80" t="s">
+      <c r="S32" s="78"/>
+      <c r="T32" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="U32" s="80"/>
+      <c r="U32" s="95"/>
       <c r="V32" s="34" t="s">
         <v>150</v>
       </c>
@@ -16113,17 +16326,17 @@
         <v>150</v>
       </c>
       <c r="Z32" s="34"/>
-      <c r="AA32" s="96"/>
+      <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="80" t="s">
+      <c r="F33" s="78"/>
+      <c r="G33" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="80"/>
+      <c r="H33" s="95"/>
       <c r="I33" s="34" t="s">
         <v>155</v>
       </c>
@@ -16133,18 +16346,18 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="33"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="74" t="s">
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74" t="s">
+      <c r="S33" s="78"/>
+      <c r="T33" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="U33" s="74"/>
+      <c r="U33" s="78"/>
       <c r="V33" s="34" t="s">
         <v>155</v>
       </c>
@@ -16154,17 +16367,17 @@
       <c r="X33" s="34"/>
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
-      <c r="AA33" s="96"/>
+      <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74" t="s">
+      <c r="F34" s="78"/>
+      <c r="G34" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="H34" s="74"/>
+      <c r="H34" s="78"/>
       <c r="I34" s="34" t="s">
         <v>153</v>
       </c>
@@ -16174,18 +16387,18 @@
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="33"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="74" t="s">
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74" t="s">
+      <c r="S34" s="78"/>
+      <c r="T34" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="U34" s="74"/>
+      <c r="U34" s="78"/>
       <c r="V34" s="34" t="s">
         <v>153</v>
       </c>
@@ -16195,17 +16408,17 @@
       <c r="X34" s="34"/>
       <c r="Y34" s="34"/>
       <c r="Z34" s="34"/>
-      <c r="AA34" s="96"/>
+      <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74" t="s">
+      <c r="F35" s="78"/>
+      <c r="G35" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="74"/>
+      <c r="H35" s="78"/>
       <c r="I35" s="34" t="s">
         <v>153</v>
       </c>
@@ -16215,18 +16428,18 @@
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="32"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="74" t="s">
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74" t="s">
+      <c r="S35" s="78"/>
+      <c r="T35" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="U35" s="74"/>
+      <c r="U35" s="78"/>
       <c r="V35" s="34" t="s">
         <v>159</v>
       </c>
@@ -16234,17 +16447,17 @@
       <c r="X35" s="34"/>
       <c r="Y35" s="34"/>
       <c r="Z35" s="34"/>
-      <c r="AA35" s="96"/>
+      <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E36" s="74" t="s">
+      <c r="E36" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74" t="s">
+      <c r="F36" s="78"/>
+      <c r="G36" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="74"/>
+      <c r="H36" s="78"/>
       <c r="I36" s="34" t="s">
         <v>153</v>
       </c>
@@ -16254,18 +16467,18 @@
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="33"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="74" t="s">
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74" t="s">
+      <c r="S36" s="78"/>
+      <c r="T36" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="U36" s="74"/>
+      <c r="U36" s="78"/>
       <c r="V36" s="34" t="s">
         <v>160</v>
       </c>
@@ -16273,17 +16486,17 @@
       <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
-      <c r="AA36" s="96"/>
+      <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E37" s="74" t="s">
+      <c r="E37" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74" t="s">
+      <c r="F37" s="78"/>
+      <c r="G37" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="74"/>
+      <c r="H37" s="78"/>
       <c r="I37" s="34" t="s">
         <v>153</v>
       </c>
@@ -16293,18 +16506,18 @@
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
       <c r="M37" s="32"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="74" t="s">
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74" t="s">
+      <c r="S37" s="78"/>
+      <c r="T37" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="U37" s="74"/>
+      <c r="U37" s="78"/>
       <c r="V37" s="34" t="s">
         <v>154</v>
       </c>
@@ -16314,17 +16527,17 @@
       <c r="X37" s="34"/>
       <c r="Y37" s="34"/>
       <c r="Z37" s="34"/>
-      <c r="AA37" s="96"/>
+      <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74" t="s">
+      <c r="F38" s="78"/>
+      <c r="G38" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="H38" s="74"/>
+      <c r="H38" s="78"/>
       <c r="I38" s="34" t="s">
         <v>158</v>
       </c>
@@ -16332,30 +16545,30 @@
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="32"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74" t="s">
+      <c r="F39" s="78"/>
+      <c r="G39" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="74"/>
+      <c r="H39" s="78"/>
       <c r="I39" s="34" t="s">
         <v>149</v>
       </c>
@@ -16365,30 +16578,30 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="32"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
-      <c r="Z39" s="96"/>
-      <c r="AA39" s="96"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E40" s="74" t="s">
+      <c r="E40" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74" t="s">
+      <c r="F40" s="78"/>
+      <c r="G40" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="74"/>
+      <c r="H40" s="78"/>
       <c r="I40" s="34" t="s">
         <v>149</v>
       </c>
@@ -16398,30 +16611,30 @@
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="40"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="96"/>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="96"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="48" t="s">
+      <c r="F41" s="78"/>
+      <c r="G41" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="H41" s="50"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="34" t="s">
         <v>153</v>
       </c>
@@ -16431,9 +16644,9 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
@@ -16443,22 +16656,22 @@
       <c r="W41" s="36"/>
       <c r="X41" s="36"/>
       <c r="Y41" s="35"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="96"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
@@ -16468,22 +16681,22 @@
       <c r="W42" s="36"/>
       <c r="X42" s="36"/>
       <c r="Y42" s="35"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="96"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="5:27" x14ac:dyDescent="0.15">
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
@@ -16492,9 +16705,9 @@
       <c r="V43" s="36"/>
       <c r="W43" s="36"/>
       <c r="X43" s="36"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="5:27" x14ac:dyDescent="0.15">
       <c r="Q44" s="41"/>
@@ -16516,7 +16729,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="95"/>
+      <c r="Y45" s="44"/>
     </row>
     <row r="46" spans="5:27" x14ac:dyDescent="0.15">
       <c r="Q46" s="41"/>
@@ -16527,7 +16740,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="95"/>
+      <c r="Y46" s="44"/>
     </row>
     <row r="47" spans="5:27" x14ac:dyDescent="0.15">
       <c r="Q47" s="41"/>
@@ -16538,7 +16751,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="95"/>
+      <c r="Y47" s="44"/>
     </row>
     <row r="48" spans="5:27" x14ac:dyDescent="0.15">
       <c r="Q48" s="41"/>
@@ -16552,8 +16765,8 @@
       <c r="Y48" s="14"/>
     </row>
     <row r="68" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -16562,11 +16775,71 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G5:V8"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M18:N18"/>
@@ -16583,6 +16856,11 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G5:V8"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="E29:F29"/>
@@ -16594,71 +16872,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16677,52 +16890,52 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="K8" s="68" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="K8" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="21"/>
       <c r="N8" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="50"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="55"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="62"/>
       <c r="V9" s="18" t="s">
         <v>5</v>
       </c>
@@ -16737,22 +16950,22 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="50"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="54"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="Q10" s="60" t="s">
+      <c r="Q10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="61"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="50"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="54"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -16767,20 +16980,20 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="65"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="I11" s="69"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="Q11" s="62" t="s">
+      <c r="Q11" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="63"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="50"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="54"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -16789,18 +17002,18 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="Q12" s="62" t="s">
+      <c r="Q12" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="63"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="50"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="54"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -16809,16 +17022,16 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="Q13" s="16" t="s">
@@ -16845,8 +17058,8 @@
       <c r="E14" s="21"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="V14" s="12"/>
@@ -16863,16 +17076,16 @@
       <c r="E15" s="22"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="Q15" s="53" t="s">
+      <c r="Q15" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="55"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="62"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -16883,12 +17096,12 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
+      <c r="I16" s="69"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="Q16" s="18" t="s">
@@ -16913,8 +17126,8 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -16977,10 +17190,10 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="65"/>
+      <c r="I21" s="69"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -16995,8 +17208,8 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -17033,12 +17246,12 @@
       <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
@@ -17056,9 +17269,9 @@
       <c r="B25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -17083,12 +17296,12 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="Q26" s="56" t="s">
+      <c r="Q26" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="58"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="67"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -17103,24 +17316,24 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="Q27" s="48" t="s">
+      <c r="Q27" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="50"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="54"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
       <c r="G28" s="18" t="s">
         <v>48</v>
       </c>
@@ -17149,12 +17362,12 @@
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="50"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="54"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -17169,12 +17382,12 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -17183,20 +17396,20 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="Q30" s="53" t="s">
+      <c r="Q30" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="55"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="62"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="50"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="54"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -17205,12 +17418,12 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="Q31" s="48" t="s">
+      <c r="Q31" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="49"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="50"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="54"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
@@ -17223,24 +17436,24 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="Q32" s="48" t="s">
+      <c r="Q32" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="50"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="52"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="64"/>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="Q33" s="48" t="s">
+      <c r="Q33" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="49"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="50"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="54"/>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.15">
       <c r="G34" s="12"/>
@@ -17296,44 +17509,44 @@
       <c r="U46" s="12"/>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="52"/>
-      <c r="H47" s="42" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="64"/>
+      <c r="H47" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="44"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="48"/>
       <c r="U47" s="12"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.15">
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="51"/>
       <c r="U48" s="12"/>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -17343,12 +17556,12 @@
       <c r="U49" s="12"/>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
       <c r="H50" s="4"/>
       <c r="I50" s="16" t="s">
         <v>38</v>
@@ -17359,12 +17572,12 @@
       <c r="M50" s="23"/>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
       <c r="H51" s="4"/>
       <c r="M51" s="6"/>
     </row>
@@ -17373,21 +17586,21 @@
         <v>19</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="53" t="s">
+      <c r="I52" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="55"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="62"/>
       <c r="M52" s="6"/>
-      <c r="R52" s="42" t="s">
+      <c r="R52" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="44"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="48"/>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H53" s="4"/>
@@ -17404,12 +17617,12 @@
         <v>52</v>
       </c>
       <c r="M53" s="6"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="47"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="51"/>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.15">
       <c r="H54" s="4"/>
@@ -17459,12 +17672,12 @@
       <c r="L57" s="12"/>
       <c r="M57" s="6"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="53" t="s">
+      <c r="S57" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="55"/>
+      <c r="T57" s="61"/>
+      <c r="U57" s="61"/>
+      <c r="V57" s="62"/>
       <c r="W57" s="6"/>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.15">
@@ -17755,41 +17968,18 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H47:M48"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="R52:W53"/>
-    <mergeCell ref="S57:V57"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
@@ -17805,21 +17995,467 @@
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H47:M48"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="R52:W53"/>
+    <mergeCell ref="S57:V57"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:R30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="10" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F4" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+    </row>
+    <row r="5" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="90"/>
+    </row>
+    <row r="6" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F6" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="99">
+        <v>42717</v>
+      </c>
+      <c r="I6" s="99">
+        <v>42724</v>
+      </c>
+      <c r="J6" s="99">
+        <v>42731</v>
+      </c>
+      <c r="K6" s="99">
+        <v>42372</v>
+      </c>
+      <c r="L6" s="99">
+        <v>42379</v>
+      </c>
+      <c r="M6" s="99">
+        <v>42386</v>
+      </c>
+      <c r="N6" s="99">
+        <v>42393</v>
+      </c>
+      <c r="O6" s="99">
+        <v>42400</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="101"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F8" s="42">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="102"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F9" s="42">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F10" s="42">
+        <v>4</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F11" s="42">
+        <v>5</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F12" s="42">
+        <v>6</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F13" s="42">
+        <v>7</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F14" s="42">
+        <v>8</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F15" s="42">
+        <v>9</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F16" s="42">
+        <v>10</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F17" s="42">
+        <v>11</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F4:O5"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="N15:N16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17844,7 +18480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="M70" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="AN60" sqref="AN60"/>
     </sheetView>
   </sheetViews>
@@ -17868,26 +18504,26 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="8:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -17905,9 +18541,9 @@
       <c r="J9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="30"/>
       <c r="O9" s="6"/>
     </row>
@@ -17917,9 +18553,9 @@
       <c r="J10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
@@ -18259,22 +18895,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="59"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -18297,42 +18933,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="50"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="50"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="50"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -18351,12 +18987,12 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -18447,12 +19083,12 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="56" t="s">
+      <c r="J28" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
@@ -18460,9 +19096,9 @@
       <c r="J29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -18485,42 +19121,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="50"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="54"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="50"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="54"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -18555,13 +19191,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J11:M11"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -18573,6 +19202,13 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18591,22 +19227,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="59"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -18630,16 +19266,16 @@
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="65"/>
+      <c r="L11" s="69"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
@@ -18657,16 +19293,16 @@
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
       <c r="E16" s="24"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="65"/>
+      <c r="L16" s="69"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="67"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
@@ -18691,16 +19327,16 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="65"/>
+      <c r="L21" s="69"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
@@ -18723,16 +19359,16 @@
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="K26" s="64" t="s">
+      <c r="K26" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="69"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I27" s="4"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
@@ -18816,22 +19452,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I7" s="59"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I8" s="1"/>
@@ -18857,42 +19493,42 @@
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I11" s="4"/>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I12" s="4"/>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="50"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I13" s="4"/>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="50"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I14" s="4"/>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="50"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.15">
@@ -18911,20 +19547,20 @@
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I17" s="4"/>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I18" s="4"/>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="69"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="21"/>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -18933,16 +19569,16 @@
     </row>
     <row r="19" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I19" s="4"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="6"/>
@@ -18951,48 +19587,48 @@
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I21" s="4"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I23" s="4"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I24" s="4"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I25" s="4"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I26" s="4"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="6"/>
@@ -19007,22 +19643,22 @@
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I28" s="4"/>
-      <c r="J28" s="56" t="s">
+      <c r="J28" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I29" s="4"/>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="50"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.15">
@@ -19045,42 +19681,42 @@
     </row>
     <row r="32" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I32" s="4"/>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="50"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="54"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="50"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="54"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.15">
@@ -19115,12 +19751,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="J17:M17"/>
@@ -19137,12 +19773,12 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19161,28 +19797,28 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="44"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="8:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="59"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="47"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H8" s="4"/>
@@ -19217,12 +19853,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
     </row>
@@ -19230,12 +19866,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
     </row>
@@ -19243,12 +19879,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
     </row>
@@ -19256,12 +19892,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="S14" s="5"/>
@@ -19272,12 +19908,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="S15" s="5"/>
@@ -19288,12 +19924,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="S16" s="5"/>
@@ -19302,12 +19938,12 @@
     </row>
     <row r="17" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
       <c r="P17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -19315,12 +19951,12 @@
     </row>
     <row r="18" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H18" s="4"/>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="72"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="50"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="54"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.15">
@@ -19344,15 +19980,15 @@
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.15">
       <c r="H21" s="4"/>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.15">
@@ -19479,12 +20115,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="58"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="67"/>
       <c r="O32" s="5"/>
       <c r="P32" s="6"/>
     </row>
@@ -19492,12 +20128,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="48" t="s">
+      <c r="K33" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="50"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="54"/>
       <c r="O33" s="5"/>
       <c r="P33" s="6"/>
     </row>
@@ -19529,12 +20165,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="53" t="s">
+      <c r="K36" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="62"/>
       <c r="O36" s="5"/>
       <c r="P36" s="6"/>
     </row>
@@ -19542,12 +20178,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="73" t="s">
+      <c r="K37" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
       <c r="O37" s="5"/>
       <c r="P37" s="6"/>
     </row>
@@ -19555,12 +20191,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="74" t="s">
+      <c r="K38" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
       <c r="O38" s="5"/>
       <c r="P38" s="6"/>
     </row>
@@ -19568,12 +20204,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="73" t="s">
+      <c r="K39" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="73"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
       <c r="O39" s="5"/>
       <c r="P39" s="6"/>
     </row>
@@ -19581,12 +20217,12 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="73" t="s">
+      <c r="K40" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="73"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
       <c r="O40" s="5"/>
       <c r="P40" s="6"/>
     </row>
@@ -19594,12 +20230,12 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="73" t="s">
+      <c r="K41" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="73"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
       <c r="O41" s="5"/>
       <c r="P41" s="6"/>
     </row>
@@ -19607,12 +20243,12 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="74" t="s">
+      <c r="K42" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
       <c r="O42" s="5"/>
       <c r="P42" s="6"/>
     </row>
@@ -19620,12 +20256,12 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="71" t="s">
+      <c r="K43" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="72"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="50"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="54"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
     </row>
@@ -19649,14 +20285,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="H6:P7"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -19671,19 +20312,14 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19702,32 +20338,32 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="8:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="59"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="47"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
@@ -19857,17 +20493,17 @@
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H17" s="4"/>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="62"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.15">
